--- a/reports/contracts/files/revenew.xlsx
+++ b/reports/contracts/files/revenew.xlsx
@@ -1,8 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
+  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\My Documents\python\ecm\reports\contracts\files\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="11400" windowHeight="5895" tabRatio="0"/>
   </bookViews>
@@ -13,17 +18,8 @@
 </workbook>
 </file>
 
-<file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <authors>
-    <author/>
-  </authors>
-  <commentList/>
-</comments>
-</file>
-
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="483" uniqueCount="483">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2011" uniqueCount="485">
   <si>
     <t>Индекс</t>
   </si>
@@ -1472,52 +1468,37 @@
   </si>
   <si>
     <t>"Договор 00000000052 от 25.01.2012 13:03:37"</t>
+  </si>
+  <si>
+    <t>ОстатокНачало</t>
+  </si>
+  <si>
+    <t>ОстатокКонец</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="2">
-    <numFmt numFmtId="50" formatCode=""/>
-    <numFmt numFmtId="51" formatCode="#,##0.0"/>
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="4">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
+      <sz val="8"/>
       <name val="Arial"/>
-      <sz val="8"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF594304"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
     <font>
+      <sz val="8"/>
+      <color rgb="FF000000"/>
       <name val="Arial"/>
-      <charset val="0"/>
       <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="594304"/>
-      <sz val="8"/>
-      <u val="none"/>
-    </font>
-    <font>
-      <name val="Arial"/>
-      <charset val="0"/>
-      <family val="2"/>
-      <b val="false"/>
-      <i val="false"/>
-      <strike val="false"/>
-      <color rgb="000000"/>
-      <sz val="8"/>
-      <u val="none"/>
     </font>
   </fonts>
   <fills count="4">
@@ -1529,14 +1510,14 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="F5F2DD"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFF5F2DD"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF"/>
-        <bgColor auto="true"/>
+        <fgColor rgb="FFFFFFFF"/>
+        <bgColor auto="1"/>
       </patternFill>
     </fill>
   </fills>
@@ -1550,16 +1531,16 @@
     </border>
     <border>
       <left style="thin">
-        <color rgb="B3AC86"/>
+        <color rgb="FFB3AC86"/>
       </left>
       <right style="thin">
-        <color rgb="B3AC86"/>
+        <color rgb="FFB3AC86"/>
       </right>
       <top style="thin">
-        <color rgb="B3AC86"/>
+        <color rgb="FFB3AC86"/>
       </top>
       <bottom style="thin">
-        <color rgb="B3AC86"/>
+        <color rgb="FFB3AC86"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1568,77 +1549,348 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
   <cellXfs count="8">
-    <xf/>
-    <xf applyAlignment="true">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf fontId="2" fillId="2" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="1" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf fontId="3" fillId="3" borderId="1" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="4" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="4" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="3" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="3" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="51" fontId="3" fillId="3" borderId="1" applyNumberFormat="true" applyFont="true" applyFill="true" applyBorder="true" applyAlignment="true">
+    <xf numFmtId="164" fontId="2" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Обычный" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<wsDr xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+<file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
+  <a:themeElements>
+    <a:clrScheme name="Office">
+      <a:dk1>
+        <a:sysClr val="windowText" lastClr="000000"/>
+      </a:dk1>
+      <a:lt1>
+        <a:sysClr val="window" lastClr="FFFFFF"/>
+      </a:lt1>
+      <a:dk2>
+        <a:srgbClr val="1F497D"/>
+      </a:dk2>
+      <a:lt2>
+        <a:srgbClr val="EEECE1"/>
+      </a:lt2>
+      <a:accent1>
+        <a:srgbClr val="4F81BD"/>
+      </a:accent1>
+      <a:accent2>
+        <a:srgbClr val="C0504D"/>
+      </a:accent2>
+      <a:accent3>
+        <a:srgbClr val="9BBB59"/>
+      </a:accent3>
+      <a:accent4>
+        <a:srgbClr val="8064A2"/>
+      </a:accent4>
+      <a:accent5>
+        <a:srgbClr val="4BACC6"/>
+      </a:accent5>
+      <a:accent6>
+        <a:srgbClr val="F79646"/>
+      </a:accent6>
+      <a:hlink>
+        <a:srgbClr val="0000FF"/>
+      </a:hlink>
+      <a:folHlink>
+        <a:srgbClr val="800080"/>
+      </a:folHlink>
+    </a:clrScheme>
+    <a:fontScheme name="Office">
+      <a:majorFont>
+        <a:latin typeface="Cambria" panose="020F0302020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Times New Roman"/>
+        <a:font script="Hebr" typeface="Times New Roman"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="MoolBoran"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Times New Roman"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:majorFont>
+      <a:minorFont>
+        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:ea typeface=""/>
+        <a:cs typeface=""/>
+        <a:font script="Jpan" typeface="ＭＳ Ｐゴシック"/>
+        <a:font script="Hang" typeface="맑은 고딕"/>
+        <a:font script="Hans" typeface="宋体"/>
+        <a:font script="Hant" typeface="新細明體"/>
+        <a:font script="Arab" typeface="Arial"/>
+        <a:font script="Hebr" typeface="Arial"/>
+        <a:font script="Thai" typeface="Tahoma"/>
+        <a:font script="Ethi" typeface="Nyala"/>
+        <a:font script="Beng" typeface="Vrinda"/>
+        <a:font script="Gujr" typeface="Shruti"/>
+        <a:font script="Khmr" typeface="DaunPenh"/>
+        <a:font script="Knda" typeface="Tunga"/>
+        <a:font script="Guru" typeface="Raavi"/>
+        <a:font script="Cans" typeface="Euphemia"/>
+        <a:font script="Cher" typeface="Plantagenet Cherokee"/>
+        <a:font script="Yiii" typeface="Microsoft Yi Baiti"/>
+        <a:font script="Tibt" typeface="Microsoft Himalaya"/>
+        <a:font script="Thaa" typeface="MV Boli"/>
+        <a:font script="Deva" typeface="Mangal"/>
+        <a:font script="Telu" typeface="Gautami"/>
+        <a:font script="Taml" typeface="Latha"/>
+        <a:font script="Syrc" typeface="Estrangelo Edessa"/>
+        <a:font script="Orya" typeface="Kalinga"/>
+        <a:font script="Mlym" typeface="Kartika"/>
+        <a:font script="Laoo" typeface="DokChampa"/>
+        <a:font script="Sinh" typeface="Iskoola Pota"/>
+        <a:font script="Mong" typeface="Mongolian Baiti"/>
+        <a:font script="Viet" typeface="Arial"/>
+        <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
+      </a:minorFont>
+    </a:fontScheme>
+    <a:fmtScheme name="Office">
+      <a:fillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="50000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="35000">
+              <a:schemeClr val="phClr">
+                <a:tint val="37000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:tint val="15000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="1"/>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:shade val="51000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="80000">
+              <a:schemeClr val="phClr">
+                <a:shade val="93000"/>
+                <a:satMod val="130000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="94000"/>
+                <a:satMod val="135000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:lin ang="16200000" scaled="0"/>
+        </a:gradFill>
+      </a:fillStyleLst>
+      <a:lnStyleLst>
+        <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr">
+              <a:shade val="95000"/>
+              <a:satMod val="105000"/>
+            </a:schemeClr>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="25400" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+        <a:ln w="38100" cap="flat" cmpd="sng" algn="ctr">
+          <a:solidFill>
+            <a:schemeClr val="phClr"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+        </a:ln>
+      </a:lnStyleLst>
+      <a:effectStyleLst>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="20000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="38000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+        </a:effectStyle>
+        <a:effectStyle>
+          <a:effectLst>
+            <a:outerShdw blurRad="40000" dist="23000" dir="5400000" rotWithShape="0">
+              <a:srgbClr val="000000">
+                <a:alpha val="35000"/>
+              </a:srgbClr>
+            </a:outerShdw>
+          </a:effectLst>
+          <a:scene3d>
+            <a:camera prst="orthographicFront">
+              <a:rot lat="0" lon="0" rev="0"/>
+            </a:camera>
+            <a:lightRig rig="threePt" dir="t">
+              <a:rot lat="0" lon="0" rev="1200000"/>
+            </a:lightRig>
+          </a:scene3d>
+          <a:sp3d>
+            <a:bevelT w="63500" h="25400"/>
+          </a:sp3d>
+        </a:effectStyle>
+      </a:effectStyleLst>
+      <a:bgFillStyleLst>
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="40000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="40000">
+              <a:schemeClr val="phClr">
+                <a:tint val="45000"/>
+                <a:shade val="99000"/>
+                <a:satMod val="350000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="20000"/>
+                <a:satMod val="255000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="-80000" r="50000" b="180000"/>
+          </a:path>
+        </a:gradFill>
+        <a:gradFill rotWithShape="1">
+          <a:gsLst>
+            <a:gs pos="0">
+              <a:schemeClr val="phClr">
+                <a:tint val="80000"/>
+                <a:satMod val="300000"/>
+              </a:schemeClr>
+            </a:gs>
+            <a:gs pos="100000">
+              <a:schemeClr val="phClr">
+                <a:shade val="30000"/>
+                <a:satMod val="200000"/>
+              </a:schemeClr>
+            </a:gs>
+          </a:gsLst>
+          <a:path path="circle">
+            <a:fillToRect l="50000" t="50000" r="50000" b="50000"/>
+          </a:path>
+        </a:gradFill>
+      </a:bgFillStyleLst>
+    </a:fmtScheme>
+  </a:themeElements>
+  <a:objectDefaults/>
+  <a:extraClrSchemeLst/>
+</a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <sheetPr>
-    <outlinePr summaryBelow="false" summaryRight="false"/>
-    <pageSetUpPr autoPageBreaks="false" fitToPage="false"/>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+    <pageSetUpPr autoPageBreaks="0"/>
   </sheetPr>
-  <dimension ref="U143"/>
+  <dimension ref="A1:W143"/>
   <sheetViews>
-    <sheetView tabSelected="true" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="J1" workbookViewId="0">
+      <selection activeCell="W3" sqref="W3"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="10.5" customHeight="true" defaultRowHeight="11.429"/>
+  <sheetFormatPr defaultColWidth="10.5" defaultRowHeight="11.45" customHeight="1" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="17.5" style="1" customWidth="true"/>
-    <col min="2" max="2" width="17.5" style="1" customWidth="true"/>
-    <col min="3" max="3" width="17.5" style="1" customWidth="true"/>
-    <col min="4" max="4" width="17.5" style="1" customWidth="true"/>
-    <col min="5" max="5" width="17.5" style="1" customWidth="true"/>
-    <col min="6" max="6" width="17.5" style="1" customWidth="true"/>
-    <col min="7" max="7" width="17.5" style="1" customWidth="true"/>
-    <col min="8" max="8" width="17.5" style="1" customWidth="true"/>
-    <col min="9" max="9" width="17.5" style="1" customWidth="true"/>
-    <col min="10" max="10" width="17.5" style="1" customWidth="true"/>
-    <col min="11" max="11" width="17.5" style="1" customWidth="true"/>
-    <col min="12" max="12" width="17.5" style="1" customWidth="true"/>
-    <col min="13" max="13" width="17.5" style="1" customWidth="true"/>
-    <col min="14" max="14" width="17.5" style="1" customWidth="true"/>
-    <col min="15" max="15" width="17.5" style="1" customWidth="true"/>
-    <col min="16" max="16" width="17.5" style="1" customWidth="true"/>
-    <col min="17" max="17" width="17.5" style="1" customWidth="true"/>
-    <col min="18" max="18" width="17.5" style="1" customWidth="true"/>
-    <col min="19" max="19" width="17.5" style="1" customWidth="true"/>
-    <col min="20" max="20" width="17.5" style="1" customWidth="true"/>
-    <col min="21" max="21" width="17.5" style="1" customWidth="true"/>
+    <col min="1" max="23" width="17.5" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="11" customHeight="true">
+    <row r="1" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
@@ -1702,9 +1954,15 @@
       <c r="U1" s="2" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="2" ht="11" customHeight="true">
-      <c r="A2" s="3" t="n">
+      <c r="V1" s="2" t="s">
+        <v>483</v>
+      </c>
+      <c r="W1" s="2" t="s">
+        <v>484</v>
+      </c>
+    </row>
+    <row r="2" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A2" s="3">
         <v>0</v>
       </c>
       <c r="B2" s="4" t="s">
@@ -1716,13 +1974,13 @@
       <c r="D2" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E2" s="4" t="e"/>
-      <c r="F2" s="4" t="e"/>
-      <c r="G2" s="4" t="e"/>
-      <c r="H2" s="4" t="e"/>
-      <c r="I2" s="4" t="e"/>
-      <c r="J2" s="5" t="n">
-        <v>912124302.66</v>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+      <c r="I2" s="4"/>
+      <c r="J2" s="5">
+        <v>912124302.65999997</v>
       </c>
       <c r="K2" s="4" t="s">
         <v>23</v>
@@ -1757,9 +2015,11 @@
       <c r="U2" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" ht="11" customHeight="true">
-      <c r="A3" s="3" t="n">
+      <c r="V2" s="4"/>
+      <c r="W2" s="4"/>
+    </row>
+    <row r="3" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A3" s="3">
         <v>1</v>
       </c>
       <c r="B3" s="4" t="s">
@@ -1771,12 +2031,12 @@
       <c r="D3" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E3" s="4" t="e"/>
-      <c r="F3" s="4" t="e"/>
-      <c r="G3" s="4" t="e"/>
-      <c r="H3" s="4" t="e"/>
-      <c r="I3" s="4" t="e"/>
-      <c r="J3" s="5" t="n">
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+      <c r="I3" s="4"/>
+      <c r="J3" s="5">
         <v>322156910.69</v>
       </c>
       <c r="K3" s="4" t="s">
@@ -1812,9 +2072,11 @@
       <c r="U3" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="4" ht="11" customHeight="true">
-      <c r="A4" s="3" t="n">
+      <c r="V3" s="4"/>
+      <c r="W3" s="4"/>
+    </row>
+    <row r="4" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A4" s="3">
         <v>2</v>
       </c>
       <c r="B4" s="4" t="s">
@@ -1826,12 +2088,12 @@
       <c r="D4" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E4" s="4" t="e"/>
-      <c r="F4" s="4" t="e"/>
-      <c r="G4" s="4" t="e"/>
-      <c r="H4" s="4" t="e"/>
-      <c r="I4" s="4" t="e"/>
-      <c r="J4" s="6" t="n">
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+      <c r="I4" s="4"/>
+      <c r="J4" s="6">
         <v>744420</v>
       </c>
       <c r="K4" s="4" t="s">
@@ -1867,9 +2129,11 @@
       <c r="U4" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="5" ht="11" customHeight="true">
-      <c r="A5" s="3" t="n">
+      <c r="V4" s="4"/>
+      <c r="W4" s="4"/>
+    </row>
+    <row r="5" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A5" s="3">
         <v>3</v>
       </c>
       <c r="B5" s="4" t="s">
@@ -1881,12 +2145,12 @@
       <c r="D5" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E5" s="4" t="e"/>
-      <c r="F5" s="4" t="e"/>
-      <c r="G5" s="4" t="e"/>
-      <c r="H5" s="4" t="e"/>
-      <c r="I5" s="4" t="e"/>
-      <c r="J5" s="6" t="n">
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+      <c r="I5" s="4"/>
+      <c r="J5" s="6">
         <v>77249928</v>
       </c>
       <c r="K5" s="4" t="s">
@@ -1922,9 +2186,11 @@
       <c r="U5" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="6" ht="11" customHeight="true">
-      <c r="A6" s="3" t="n">
+      <c r="V5" s="4"/>
+      <c r="W5" s="4"/>
+    </row>
+    <row r="6" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A6" s="3">
         <v>4</v>
       </c>
       <c r="B6" s="4" t="s">
@@ -1936,14 +2202,14 @@
       <c r="D6" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E6" s="4" t="e"/>
-      <c r="F6" s="4" t="e"/>
-      <c r="G6" s="5" t="n">
-        <v>199427099.36</v>
-      </c>
-      <c r="H6" s="4" t="e"/>
-      <c r="I6" s="4" t="e"/>
-      <c r="J6" s="5" t="n">
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="5">
+        <v>199427099.36000001</v>
+      </c>
+      <c r="H6" s="4"/>
+      <c r="I6" s="4"/>
+      <c r="J6" s="5">
         <v>565082669.37</v>
       </c>
       <c r="K6" s="4" t="s">
@@ -1979,9 +2245,11 @@
       <c r="U6" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="7" ht="11" customHeight="true">
-      <c r="A7" s="3" t="n">
+      <c r="V6" s="4"/>
+      <c r="W6" s="4"/>
+    </row>
+    <row r="7" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A7" s="3">
         <v>5</v>
       </c>
       <c r="B7" s="4" t="s">
@@ -1993,18 +2261,18 @@
       <c r="D7" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E7" s="5" t="n">
+      <c r="E7" s="5">
         <v>741794.86</v>
       </c>
-      <c r="F7" s="4" t="e"/>
-      <c r="G7" s="5" t="n">
+      <c r="F7" s="4"/>
+      <c r="G7" s="5">
         <v>741794.86</v>
       </c>
-      <c r="H7" s="4" t="e"/>
-      <c r="I7" s="5" t="n">
+      <c r="H7" s="4"/>
+      <c r="I7" s="5">
         <v>741794.86</v>
       </c>
-      <c r="J7" s="5" t="n">
+      <c r="J7" s="5">
         <v>889857.44</v>
       </c>
       <c r="K7" s="4" t="s">
@@ -2040,9 +2308,15 @@
       <c r="U7" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="8" ht="11" customHeight="true">
-      <c r="A8" s="3" t="n">
+      <c r="V7" s="5">
+        <v>741794.86</v>
+      </c>
+      <c r="W7" s="5">
+        <v>741794.86</v>
+      </c>
+    </row>
+    <row r="8" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A8" s="3">
         <v>6</v>
       </c>
       <c r="B8" s="4" t="s">
@@ -2054,12 +2328,12 @@
       <c r="D8" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E8" s="4" t="e"/>
-      <c r="F8" s="4" t="e"/>
-      <c r="G8" s="4" t="e"/>
-      <c r="H8" s="4" t="e"/>
-      <c r="I8" s="4" t="e"/>
-      <c r="J8" s="3" t="n">
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+      <c r="I8" s="4"/>
+      <c r="J8" s="3">
         <v>0</v>
       </c>
       <c r="K8" s="4" t="s">
@@ -2095,9 +2369,11 @@
       <c r="U8" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="9" ht="11" customHeight="true">
-      <c r="A9" s="3" t="n">
+      <c r="V8" s="4"/>
+      <c r="W8" s="4"/>
+    </row>
+    <row r="9" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A9" s="3">
         <v>7</v>
       </c>
       <c r="B9" s="4" t="s">
@@ -2109,13 +2385,13 @@
       <c r="D9" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E9" s="4" t="e"/>
-      <c r="F9" s="4" t="e"/>
-      <c r="G9" s="4" t="e"/>
-      <c r="H9" s="4" t="e"/>
-      <c r="I9" s="4" t="e"/>
-      <c r="J9" s="5" t="n">
-        <v>7640178.22</v>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+      <c r="I9" s="4"/>
+      <c r="J9" s="5">
+        <v>7640178.2199999997</v>
       </c>
       <c r="K9" s="4" t="s">
         <v>23</v>
@@ -2150,9 +2426,11 @@
       <c r="U9" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="10" ht="11" customHeight="true">
-      <c r="A10" s="3" t="n">
+      <c r="V9" s="4"/>
+      <c r="W9" s="4"/>
+    </row>
+    <row r="10" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A10" s="3">
         <v>8</v>
       </c>
       <c r="B10" s="4" t="s">
@@ -2164,18 +2442,18 @@
       <c r="D10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E10" s="7" t="n">
+      <c r="E10" s="7">
         <v>328175.7</v>
       </c>
-      <c r="F10" s="4" t="e"/>
-      <c r="G10" s="7" t="n">
+      <c r="F10" s="4"/>
+      <c r="G10" s="7">
         <v>328175.7</v>
       </c>
-      <c r="H10" s="4" t="e"/>
-      <c r="I10" s="7" t="n">
+      <c r="H10" s="4"/>
+      <c r="I10" s="7">
         <v>328175.7</v>
       </c>
-      <c r="J10" s="6" t="n">
+      <c r="J10" s="6">
         <v>1406720</v>
       </c>
       <c r="K10" s="4" t="s">
@@ -2211,9 +2489,15 @@
       <c r="U10" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="11" ht="11" customHeight="true">
-      <c r="A11" s="3" t="n">
+      <c r="V10" s="7">
+        <v>328175.7</v>
+      </c>
+      <c r="W10" s="7">
+        <v>328175.7</v>
+      </c>
+    </row>
+    <row r="11" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="3">
         <v>9</v>
       </c>
       <c r="B11" s="4" t="s">
@@ -2225,18 +2509,18 @@
       <c r="D11" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E11" s="5" t="n">
+      <c r="E11" s="5">
         <v>1283983.48</v>
       </c>
-      <c r="F11" s="4" t="e"/>
-      <c r="G11" s="5" t="n">
+      <c r="F11" s="4"/>
+      <c r="G11" s="5">
         <v>1283983.48</v>
       </c>
-      <c r="H11" s="4" t="e"/>
-      <c r="I11" s="5" t="n">
+      <c r="H11" s="4"/>
+      <c r="I11" s="5">
         <v>1283983.48</v>
       </c>
-      <c r="J11" s="5" t="n">
+      <c r="J11" s="5">
         <v>1982993.41</v>
       </c>
       <c r="K11" s="4" t="s">
@@ -2272,9 +2556,15 @@
       <c r="U11" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="12" ht="11" customHeight="true">
-      <c r="A12" s="3" t="n">
+      <c r="V11" s="5">
+        <v>1283983.48</v>
+      </c>
+      <c r="W11" s="5">
+        <v>1283983.48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A12" s="3">
         <v>10</v>
       </c>
       <c r="B12" s="4" t="s">
@@ -2286,12 +2576,12 @@
       <c r="D12" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E12" s="4" t="e"/>
-      <c r="F12" s="4" t="e"/>
-      <c r="G12" s="4" t="e"/>
-      <c r="H12" s="4" t="e"/>
-      <c r="I12" s="4" t="e"/>
-      <c r="J12" s="3" t="n">
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+      <c r="I12" s="4"/>
+      <c r="J12" s="3">
         <v>0</v>
       </c>
       <c r="K12" s="4" t="s">
@@ -2327,9 +2617,11 @@
       <c r="U12" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="13" ht="11" customHeight="true">
-      <c r="A13" s="3" t="n">
+      <c r="V12" s="4"/>
+      <c r="W12" s="4"/>
+    </row>
+    <row r="13" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A13" s="3">
         <v>11</v>
       </c>
       <c r="B13" s="4" t="s">
@@ -2341,12 +2633,12 @@
       <c r="D13" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="4" t="e"/>
-      <c r="F13" s="4" t="e"/>
-      <c r="G13" s="4" t="e"/>
-      <c r="H13" s="4" t="e"/>
-      <c r="I13" s="4" t="e"/>
-      <c r="J13" s="3" t="n">
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+      <c r="I13" s="4"/>
+      <c r="J13" s="3">
         <v>0</v>
       </c>
       <c r="K13" s="4" t="s">
@@ -2382,9 +2674,11 @@
       <c r="U13" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="14" ht="11" customHeight="true">
-      <c r="A14" s="3" t="n">
+      <c r="V13" s="4"/>
+      <c r="W13" s="4"/>
+    </row>
+    <row r="14" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A14" s="3">
         <v>12</v>
       </c>
       <c r="B14" s="4" t="s">
@@ -2396,19 +2690,19 @@
       <c r="D14" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E14" s="5" t="n">
+      <c r="E14" s="5">
         <v>189818.47</v>
       </c>
-      <c r="F14" s="4" t="e"/>
-      <c r="G14" s="5" t="n">
+      <c r="F14" s="4"/>
+      <c r="G14" s="5">
         <v>189818.47</v>
       </c>
-      <c r="H14" s="4" t="e"/>
-      <c r="I14" s="5" t="n">
+      <c r="H14" s="4"/>
+      <c r="I14" s="5">
         <v>189818.47</v>
       </c>
-      <c r="J14" s="5" t="n">
-        <v>1151264.91</v>
+      <c r="J14" s="5">
+        <v>1151264.9099999999</v>
       </c>
       <c r="K14" s="4" t="s">
         <v>23</v>
@@ -2443,9 +2737,15 @@
       <c r="U14" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="15" ht="11" customHeight="true">
-      <c r="A15" s="3" t="n">
+      <c r="V14" s="5">
+        <v>189818.47</v>
+      </c>
+      <c r="W14" s="5">
+        <v>189818.47</v>
+      </c>
+    </row>
+    <row r="15" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A15" s="3">
         <v>13</v>
       </c>
       <c r="B15" s="4" t="s">
@@ -2457,18 +2757,18 @@
       <c r="D15" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E15" s="5" t="n">
+      <c r="E15" s="5">
         <v>121309.58</v>
       </c>
-      <c r="F15" s="4" t="e"/>
-      <c r="G15" s="5" t="n">
+      <c r="F15" s="4"/>
+      <c r="G15" s="5">
         <v>121309.58</v>
       </c>
-      <c r="H15" s="4" t="e"/>
-      <c r="I15" s="5" t="n">
+      <c r="H15" s="4"/>
+      <c r="I15" s="5">
         <v>121309.58</v>
       </c>
-      <c r="J15" s="5" t="n">
+      <c r="J15" s="5">
         <v>648538.99</v>
       </c>
       <c r="K15" s="4" t="s">
@@ -2504,9 +2804,15 @@
       <c r="U15" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="16" ht="11" customHeight="true">
-      <c r="A16" s="3" t="n">
+      <c r="V15" s="5">
+        <v>121309.58</v>
+      </c>
+      <c r="W15" s="5">
+        <v>121309.58</v>
+      </c>
+    </row>
+    <row r="16" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A16" s="3">
         <v>14</v>
       </c>
       <c r="B16" s="4" t="s">
@@ -2518,18 +2824,18 @@
       <c r="D16" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E16" s="5" t="n">
+      <c r="E16" s="5">
         <v>152246.22</v>
       </c>
-      <c r="F16" s="4" t="e"/>
-      <c r="G16" s="5" t="n">
+      <c r="F16" s="4"/>
+      <c r="G16" s="5">
         <v>152246.22</v>
       </c>
-      <c r="H16" s="4" t="e"/>
-      <c r="I16" s="5" t="n">
+      <c r="H16" s="4"/>
+      <c r="I16" s="5">
         <v>152246.22</v>
       </c>
-      <c r="J16" s="5" t="n">
+      <c r="J16" s="5">
         <v>956101.26</v>
       </c>
       <c r="K16" s="4" t="s">
@@ -2565,9 +2871,15 @@
       <c r="U16" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="17" ht="11" customHeight="true">
-      <c r="A17" s="3" t="n">
+      <c r="V16" s="5">
+        <v>152246.22</v>
+      </c>
+      <c r="W16" s="5">
+        <v>152246.22</v>
+      </c>
+    </row>
+    <row r="17" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A17" s="3">
         <v>15</v>
       </c>
       <c r="B17" s="4" t="s">
@@ -2579,18 +2891,18 @@
       <c r="D17" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E17" s="5" t="n">
+      <c r="E17" s="5">
         <v>110991.26</v>
       </c>
-      <c r="F17" s="4" t="e"/>
-      <c r="G17" s="5" t="n">
+      <c r="F17" s="4"/>
+      <c r="G17" s="5">
         <v>110991.26</v>
       </c>
-      <c r="H17" s="4" t="e"/>
-      <c r="I17" s="5" t="n">
+      <c r="H17" s="4"/>
+      <c r="I17" s="5">
         <v>110991.26</v>
       </c>
-      <c r="J17" s="5" t="n">
+      <c r="J17" s="5">
         <v>647560.47</v>
       </c>
       <c r="K17" s="4" t="s">
@@ -2626,9 +2938,15 @@
       <c r="U17" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="18" ht="11" customHeight="true">
-      <c r="A18" s="3" t="n">
+      <c r="V17" s="5">
+        <v>110991.26</v>
+      </c>
+      <c r="W17" s="5">
+        <v>110991.26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A18" s="3">
         <v>16</v>
       </c>
       <c r="B18" s="4" t="s">
@@ -2640,18 +2958,18 @@
       <c r="D18" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E18" s="5" t="n">
+      <c r="E18" s="5">
         <v>357861.84</v>
       </c>
-      <c r="F18" s="4" t="e"/>
-      <c r="G18" s="5" t="n">
+      <c r="F18" s="4"/>
+      <c r="G18" s="5">
         <v>357861.84</v>
       </c>
-      <c r="H18" s="4" t="e"/>
-      <c r="I18" s="5" t="n">
+      <c r="H18" s="4"/>
+      <c r="I18" s="5">
         <v>357861.84</v>
       </c>
-      <c r="J18" s="5" t="n">
+      <c r="J18" s="5">
         <v>528722.36</v>
       </c>
       <c r="K18" s="4" t="s">
@@ -2687,9 +3005,15 @@
       <c r="U18" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="19" ht="11" customHeight="true">
-      <c r="A19" s="3" t="n">
+      <c r="V18" s="5">
+        <v>357861.84</v>
+      </c>
+      <c r="W18" s="5">
+        <v>357861.84</v>
+      </c>
+    </row>
+    <row r="19" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A19" s="3">
         <v>17</v>
       </c>
       <c r="B19" s="4" t="s">
@@ -2701,18 +3025,18 @@
       <c r="D19" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E19" s="5" t="n">
-        <v>31567.36</v>
-      </c>
-      <c r="F19" s="4" t="e"/>
-      <c r="G19" s="5" t="n">
-        <v>31567.36</v>
-      </c>
-      <c r="H19" s="4" t="e"/>
-      <c r="I19" s="5" t="n">
-        <v>31567.36</v>
-      </c>
-      <c r="J19" s="5" t="n">
+      <c r="E19" s="5">
+        <v>31567.360000000001</v>
+      </c>
+      <c r="F19" s="4"/>
+      <c r="G19" s="5">
+        <v>31567.360000000001</v>
+      </c>
+      <c r="H19" s="4"/>
+      <c r="I19" s="5">
+        <v>31567.360000000001</v>
+      </c>
+      <c r="J19" s="5">
         <v>784585.64</v>
       </c>
       <c r="K19" s="4" t="s">
@@ -2748,9 +3072,15 @@
       <c r="U19" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="20" ht="11" customHeight="true">
-      <c r="A20" s="3" t="n">
+      <c r="V19" s="5">
+        <v>31567.360000000001</v>
+      </c>
+      <c r="W19" s="5">
+        <v>31567.360000000001</v>
+      </c>
+    </row>
+    <row r="20" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A20" s="3">
         <v>18</v>
       </c>
       <c r="B20" s="4" t="s">
@@ -2762,20 +3092,20 @@
       <c r="D20" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E20" s="5" t="n">
+      <c r="E20" s="5">
         <v>907164.49</v>
       </c>
-      <c r="F20" s="4" t="e"/>
-      <c r="G20" s="5" t="n">
+      <c r="F20" s="4"/>
+      <c r="G20" s="5">
         <v>907164.49</v>
       </c>
-      <c r="H20" s="5" t="n">
+      <c r="H20" s="5">
         <v>14926.78</v>
       </c>
-      <c r="I20" s="5" t="n">
+      <c r="I20" s="5">
         <v>907164.49</v>
       </c>
-      <c r="J20" s="5" t="n">
+      <c r="J20" s="5">
         <v>926834.81</v>
       </c>
       <c r="K20" s="4" t="s">
@@ -2811,9 +3141,15 @@
       <c r="U20" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="21" ht="11" customHeight="true">
-      <c r="A21" s="3" t="n">
+      <c r="V20" s="5">
+        <v>907164.49</v>
+      </c>
+      <c r="W20" s="5">
+        <v>907164.49</v>
+      </c>
+    </row>
+    <row r="21" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A21" s="3">
         <v>19</v>
       </c>
       <c r="B21" s="4" t="s">
@@ -2825,20 +3161,20 @@
       <c r="D21" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E21" s="5" t="n">
+      <c r="E21" s="5">
         <v>14926.78</v>
       </c>
-      <c r="F21" s="4" t="e"/>
-      <c r="G21" s="5" t="n">
+      <c r="F21" s="4"/>
+      <c r="G21" s="5">
         <v>907164.49</v>
       </c>
-      <c r="H21" s="5" t="n">
+      <c r="H21" s="5">
         <v>14926.78</v>
       </c>
-      <c r="I21" s="5" t="n">
+      <c r="I21" s="5">
         <v>907164.49</v>
       </c>
-      <c r="J21" s="5" t="n">
+      <c r="J21" s="5">
         <v>926834.81</v>
       </c>
       <c r="K21" s="4" t="s">
@@ -2874,9 +3210,15 @@
       <c r="U21" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="22" ht="11" customHeight="true">
-      <c r="A22" s="3" t="n">
+      <c r="V21" s="5">
+        <v>907164.49</v>
+      </c>
+      <c r="W21" s="5">
+        <v>14926.78</v>
+      </c>
+    </row>
+    <row r="22" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A22" s="3">
         <v>20</v>
       </c>
       <c r="B22" s="4" t="s">
@@ -2888,12 +3230,12 @@
       <c r="D22" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E22" s="4" t="e"/>
-      <c r="F22" s="4" t="e"/>
-      <c r="G22" s="4" t="e"/>
-      <c r="H22" s="4" t="e"/>
-      <c r="I22" s="4" t="e"/>
-      <c r="J22" s="5" t="n">
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+      <c r="I22" s="4"/>
+      <c r="J22" s="5">
         <v>3501211.99</v>
       </c>
       <c r="K22" s="4" t="s">
@@ -2929,9 +3271,11 @@
       <c r="U22" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="23" ht="11" customHeight="true">
-      <c r="A23" s="3" t="n">
+      <c r="V22" s="4"/>
+      <c r="W22" s="4"/>
+    </row>
+    <row r="23" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="3">
         <v>21</v>
       </c>
       <c r="B23" s="4" t="s">
@@ -2943,12 +3287,12 @@
       <c r="D23" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E23" s="4" t="e"/>
-      <c r="F23" s="4" t="e"/>
-      <c r="G23" s="4" t="e"/>
-      <c r="H23" s="4" t="e"/>
-      <c r="I23" s="4" t="e"/>
-      <c r="J23" s="3" t="n">
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+      <c r="I23" s="4"/>
+      <c r="J23" s="3">
         <v>0</v>
       </c>
       <c r="K23" s="4" t="s">
@@ -2984,9 +3328,11 @@
       <c r="U23" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="24" ht="11" customHeight="true">
-      <c r="A24" s="3" t="n">
+      <c r="V23" s="4"/>
+      <c r="W23" s="4"/>
+    </row>
+    <row r="24" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A24" s="3">
         <v>22</v>
       </c>
       <c r="B24" s="4" t="s">
@@ -2998,13 +3344,13 @@
       <c r="D24" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E24" s="4" t="e"/>
-      <c r="F24" s="4" t="e"/>
-      <c r="G24" s="4" t="e"/>
-      <c r="H24" s="4" t="e"/>
-      <c r="I24" s="4" t="e"/>
-      <c r="J24" s="5" t="n">
-        <v>22588172.04</v>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+      <c r="I24" s="4"/>
+      <c r="J24" s="5">
+        <v>22588172.039999999</v>
       </c>
       <c r="K24" s="4" t="s">
         <v>23</v>
@@ -3039,9 +3385,11 @@
       <c r="U24" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="25" ht="11" customHeight="true">
-      <c r="A25" s="3" t="n">
+      <c r="V24" s="4"/>
+      <c r="W24" s="4"/>
+    </row>
+    <row r="25" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A25" s="3">
         <v>23</v>
       </c>
       <c r="B25" s="4" t="s">
@@ -3053,19 +3401,19 @@
       <c r="D25" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E25" s="5" t="n">
-        <v>24265449.86</v>
-      </c>
-      <c r="F25" s="4" t="e"/>
-      <c r="G25" s="5" t="n">
-        <v>24265449.86</v>
-      </c>
-      <c r="H25" s="4" t="e"/>
-      <c r="I25" s="5" t="n">
-        <v>24265449.86</v>
-      </c>
-      <c r="J25" s="7" t="n">
-        <v>24266267.1</v>
+      <c r="E25" s="5">
+        <v>24265449.859999999</v>
+      </c>
+      <c r="F25" s="4"/>
+      <c r="G25" s="5">
+        <v>24265449.859999999</v>
+      </c>
+      <c r="H25" s="4"/>
+      <c r="I25" s="5">
+        <v>24265449.859999999</v>
+      </c>
+      <c r="J25" s="7">
+        <v>24266267.100000001</v>
       </c>
       <c r="K25" s="4" t="s">
         <v>23</v>
@@ -3100,9 +3448,15 @@
       <c r="U25" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="26" ht="11" customHeight="true">
-      <c r="A26" s="3" t="n">
+      <c r="V25" s="5">
+        <v>24265449.859999999</v>
+      </c>
+      <c r="W25" s="5">
+        <v>24265449.859999999</v>
+      </c>
+    </row>
+    <row r="26" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A26" s="3">
         <v>24</v>
       </c>
       <c r="B26" s="4" t="s">
@@ -3114,19 +3468,19 @@
       <c r="D26" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E26" s="5" t="n">
+      <c r="E26" s="5">
         <v>25681.52</v>
       </c>
-      <c r="F26" s="4" t="e"/>
-      <c r="G26" s="5" t="n">
+      <c r="F26" s="4"/>
+      <c r="G26" s="5">
         <v>25681.52</v>
       </c>
-      <c r="H26" s="4" t="e"/>
-      <c r="I26" s="5" t="n">
+      <c r="H26" s="4"/>
+      <c r="I26" s="5">
         <v>25681.52</v>
       </c>
-      <c r="J26" s="5" t="n">
-        <v>9831057.48</v>
+      <c r="J26" s="5">
+        <v>9831057.4800000004</v>
       </c>
       <c r="K26" s="4" t="s">
         <v>23</v>
@@ -3161,9 +3515,15 @@
       <c r="U26" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="27" ht="11" customHeight="true">
-      <c r="A27" s="3" t="n">
+      <c r="V26" s="5">
+        <v>25681.52</v>
+      </c>
+      <c r="W26" s="5">
+        <v>25681.52</v>
+      </c>
+    </row>
+    <row r="27" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A27" s="3">
         <v>25</v>
       </c>
       <c r="B27" s="4" t="s">
@@ -3175,18 +3535,18 @@
       <c r="D27" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E27" s="5" t="n">
+      <c r="E27" s="5">
         <v>231630.88</v>
       </c>
-      <c r="F27" s="4" t="e"/>
-      <c r="G27" s="5" t="n">
+      <c r="F27" s="4"/>
+      <c r="G27" s="5">
         <v>231630.88</v>
       </c>
-      <c r="H27" s="4" t="e"/>
-      <c r="I27" s="5" t="n">
+      <c r="H27" s="4"/>
+      <c r="I27" s="5">
         <v>231630.88</v>
       </c>
-      <c r="J27" s="5" t="n">
+      <c r="J27" s="5">
         <v>1047867.46</v>
       </c>
       <c r="K27" s="4" t="s">
@@ -3222,9 +3582,15 @@
       <c r="U27" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" ht="11" customHeight="true">
-      <c r="A28" s="3" t="n">
+      <c r="V27" s="5">
+        <v>231630.88</v>
+      </c>
+      <c r="W27" s="5">
+        <v>231630.88</v>
+      </c>
+    </row>
+    <row r="28" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A28" s="3">
         <v>26</v>
       </c>
       <c r="B28" s="4" t="s">
@@ -3236,18 +3602,18 @@
       <c r="D28" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E28" s="5" t="n">
-        <v>558430.68</v>
-      </c>
-      <c r="F28" s="4" t="e"/>
-      <c r="G28" s="5" t="n">
-        <v>558430.68</v>
-      </c>
-      <c r="H28" s="4" t="e"/>
-      <c r="I28" s="5" t="n">
-        <v>558430.68</v>
-      </c>
-      <c r="J28" s="5" t="n">
+      <c r="E28" s="5">
+        <v>558430.68000000005</v>
+      </c>
+      <c r="F28" s="4"/>
+      <c r="G28" s="5">
+        <v>558430.68000000005</v>
+      </c>
+      <c r="H28" s="4"/>
+      <c r="I28" s="5">
+        <v>558430.68000000005</v>
+      </c>
+      <c r="J28" s="5">
         <v>1287897.26</v>
       </c>
       <c r="K28" s="4" t="s">
@@ -3283,9 +3649,15 @@
       <c r="U28" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="29" ht="11" customHeight="true">
-      <c r="A29" s="3" t="n">
+      <c r="V28" s="5">
+        <v>558430.68000000005</v>
+      </c>
+      <c r="W28" s="5">
+        <v>558430.68000000005</v>
+      </c>
+    </row>
+    <row r="29" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A29" s="3">
         <v>27</v>
       </c>
       <c r="B29" s="4" t="s">
@@ -3297,18 +3669,18 @@
       <c r="D29" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E29" s="5" t="n">
+      <c r="E29" s="5">
         <v>993555.82</v>
       </c>
-      <c r="F29" s="4" t="e"/>
-      <c r="G29" s="5" t="n">
+      <c r="F29" s="4"/>
+      <c r="G29" s="5">
         <v>993555.82</v>
       </c>
-      <c r="H29" s="4" t="e"/>
-      <c r="I29" s="5" t="n">
+      <c r="H29" s="4"/>
+      <c r="I29" s="5">
         <v>993555.82</v>
       </c>
-      <c r="J29" s="5" t="n">
+      <c r="J29" s="5">
         <v>1073980.57</v>
       </c>
       <c r="K29" s="4" t="s">
@@ -3344,9 +3716,15 @@
       <c r="U29" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="30" ht="11" customHeight="true">
-      <c r="A30" s="3" t="n">
+      <c r="V29" s="5">
+        <v>993555.82</v>
+      </c>
+      <c r="W29" s="5">
+        <v>993555.82</v>
+      </c>
+    </row>
+    <row r="30" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A30" s="3">
         <v>28</v>
       </c>
       <c r="B30" s="4" t="s">
@@ -3358,18 +3736,18 @@
       <c r="D30" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E30" s="5" t="n">
+      <c r="E30" s="5">
         <v>278465.36</v>
       </c>
-      <c r="F30" s="4" t="e"/>
-      <c r="G30" s="5" t="n">
+      <c r="F30" s="4"/>
+      <c r="G30" s="5">
         <v>278465.36</v>
       </c>
-      <c r="H30" s="4" t="e"/>
-      <c r="I30" s="5" t="n">
+      <c r="H30" s="4"/>
+      <c r="I30" s="5">
         <v>278465.36</v>
       </c>
-      <c r="J30" s="5" t="n">
+      <c r="J30" s="5">
         <v>613681.51</v>
       </c>
       <c r="K30" s="4" t="s">
@@ -3405,9 +3783,15 @@
       <c r="U30" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="31" ht="11" customHeight="true">
-      <c r="A31" s="3" t="n">
+      <c r="V30" s="5">
+        <v>278465.36</v>
+      </c>
+      <c r="W30" s="5">
+        <v>278465.36</v>
+      </c>
+    </row>
+    <row r="31" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A31" s="3">
         <v>29</v>
       </c>
       <c r="B31" s="4" t="s">
@@ -3419,12 +3803,12 @@
       <c r="D31" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E31" s="4" t="e"/>
-      <c r="F31" s="4" t="e"/>
-      <c r="G31" s="4" t="e"/>
-      <c r="H31" s="4" t="e"/>
-      <c r="I31" s="4" t="e"/>
-      <c r="J31" s="5" t="n">
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+      <c r="I31" s="4"/>
+      <c r="J31" s="5">
         <v>513415.37</v>
       </c>
       <c r="K31" s="4" t="s">
@@ -3460,9 +3844,11 @@
       <c r="U31" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="32" ht="11" customHeight="true">
-      <c r="A32" s="3" t="n">
+      <c r="V31" s="4"/>
+      <c r="W31" s="4"/>
+    </row>
+    <row r="32" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A32" s="3">
         <v>30</v>
       </c>
       <c r="B32" s="4" t="s">
@@ -3474,12 +3860,12 @@
       <c r="D32" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E32" s="4" t="e"/>
-      <c r="F32" s="4" t="e"/>
-      <c r="G32" s="4" t="e"/>
-      <c r="H32" s="4" t="e"/>
-      <c r="I32" s="4" t="e"/>
-      <c r="J32" s="5" t="n">
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+      <c r="I32" s="4"/>
+      <c r="J32" s="5">
         <v>124832.46</v>
       </c>
       <c r="K32" s="4" t="s">
@@ -3515,9 +3901,11 @@
       <c r="U32" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="33" ht="11" customHeight="true">
-      <c r="A33" s="3" t="n">
+      <c r="V32" s="4"/>
+      <c r="W32" s="4"/>
+    </row>
+    <row r="33" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A33" s="3">
         <v>31</v>
       </c>
       <c r="B33" s="4" t="s">
@@ -3529,12 +3917,12 @@
       <c r="D33" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E33" s="4" t="e"/>
-      <c r="F33" s="4" t="e"/>
-      <c r="G33" s="4" t="e"/>
-      <c r="H33" s="4" t="e"/>
-      <c r="I33" s="4" t="e"/>
-      <c r="J33" s="5" t="n">
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+      <c r="I33" s="4"/>
+      <c r="J33" s="5">
         <v>613270.63</v>
       </c>
       <c r="K33" s="4" t="s">
@@ -3570,9 +3958,11 @@
       <c r="U33" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" ht="11" customHeight="true">
-      <c r="A34" s="3" t="n">
+      <c r="V33" s="4"/>
+      <c r="W33" s="4"/>
+    </row>
+    <row r="34" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A34" s="3">
         <v>32</v>
       </c>
       <c r="B34" s="4" t="s">
@@ -3584,12 +3974,12 @@
       <c r="D34" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E34" s="4" t="e"/>
-      <c r="F34" s="4" t="e"/>
-      <c r="G34" s="4" t="e"/>
-      <c r="H34" s="4" t="e"/>
-      <c r="I34" s="4" t="e"/>
-      <c r="J34" s="5" t="n">
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+      <c r="I34" s="4"/>
+      <c r="J34" s="5">
         <v>508474.55</v>
       </c>
       <c r="K34" s="4" t="s">
@@ -3625,9 +4015,11 @@
       <c r="U34" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="35" ht="11" customHeight="true">
-      <c r="A35" s="3" t="n">
+      <c r="V34" s="4"/>
+      <c r="W34" s="4"/>
+    </row>
+    <row r="35" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35" s="3">
         <v>33</v>
       </c>
       <c r="B35" s="4" t="s">
@@ -3639,12 +4031,12 @@
       <c r="D35" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E35" s="4" t="e"/>
-      <c r="F35" s="4" t="e"/>
-      <c r="G35" s="4" t="e"/>
-      <c r="H35" s="4" t="e"/>
-      <c r="I35" s="4" t="e"/>
-      <c r="J35" s="5" t="n">
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+      <c r="I35" s="4"/>
+      <c r="J35" s="5">
         <v>480293.58</v>
       </c>
       <c r="K35" s="4" t="s">
@@ -3680,9 +4072,11 @@
       <c r="U35" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="36" ht="11" customHeight="true">
-      <c r="A36" s="3" t="n">
+      <c r="V35" s="4"/>
+      <c r="W35" s="4"/>
+    </row>
+    <row r="36" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A36" s="3">
         <v>34</v>
       </c>
       <c r="B36" s="4" t="s">
@@ -3694,18 +4088,18 @@
       <c r="D36" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E36" s="5" t="n">
-        <v>156391274.95</v>
-      </c>
-      <c r="F36" s="4" t="e"/>
-      <c r="G36" s="5" t="n">
+      <c r="E36" s="5">
+        <v>156391274.94999999</v>
+      </c>
+      <c r="F36" s="4"/>
+      <c r="G36" s="5">
         <v>123039852.12</v>
       </c>
-      <c r="H36" s="4" t="e"/>
-      <c r="I36" s="5" t="n">
-        <v>156391274.95</v>
-      </c>
-      <c r="J36" s="6" t="n">
+      <c r="H36" s="4"/>
+      <c r="I36" s="5">
+        <v>156391274.94999999</v>
+      </c>
+      <c r="J36" s="6">
         <v>249115620</v>
       </c>
       <c r="K36" s="4" t="s">
@@ -3741,9 +4135,15 @@
       <c r="U36" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="37" ht="11" customHeight="true">
-      <c r="A37" s="3" t="n">
+      <c r="V36" s="5">
+        <v>156391274.94999999</v>
+      </c>
+      <c r="W36" s="5">
+        <v>156391274.94999999</v>
+      </c>
+    </row>
+    <row r="37" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A37" s="3">
         <v>35</v>
       </c>
       <c r="B37" s="4" t="s">
@@ -3755,21 +4155,21 @@
       <c r="D37" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E37" s="5" t="n">
+      <c r="E37" s="5">
         <v>6247547.71</v>
       </c>
-      <c r="F37" s="5" t="n">
+      <c r="F37" s="5">
         <v>6247547.71</v>
       </c>
-      <c r="G37" s="4" t="e"/>
-      <c r="H37" s="5" t="n">
+      <c r="G37" s="4"/>
+      <c r="H37" s="5">
         <v>21602975.18</v>
       </c>
-      <c r="I37" s="5" t="n">
+      <c r="I37" s="5">
         <v>6247547.71</v>
       </c>
-      <c r="J37" s="5" t="n">
-        <v>765049056.31</v>
+      <c r="J37" s="5">
+        <v>765049056.30999994</v>
       </c>
       <c r="K37" s="4" t="s">
         <v>23</v>
@@ -3804,9 +4204,15 @@
       <c r="U37" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="38" ht="11" customHeight="true">
-      <c r="A38" s="3" t="n">
+      <c r="V37" s="5">
+        <v>6247547.71</v>
+      </c>
+      <c r="W37" s="5">
+        <v>6247547.71</v>
+      </c>
+    </row>
+    <row r="38" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A38" s="3">
         <v>36</v>
       </c>
       <c r="B38" s="4" t="s">
@@ -3818,21 +4224,21 @@
       <c r="D38" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E38" s="5" t="n">
+      <c r="E38" s="5">
         <v>21602975.18</v>
       </c>
-      <c r="F38" s="5" t="n">
+      <c r="F38" s="5">
         <v>6247547.71</v>
       </c>
-      <c r="G38" s="4" t="e"/>
-      <c r="H38" s="5" t="n">
+      <c r="G38" s="4"/>
+      <c r="H38" s="5">
         <v>21602975.18</v>
       </c>
-      <c r="I38" s="5" t="n">
+      <c r="I38" s="5">
         <v>6247547.71</v>
       </c>
-      <c r="J38" s="5" t="n">
-        <v>765049056.31</v>
+      <c r="J38" s="5">
+        <v>765049056.30999994</v>
       </c>
       <c r="K38" s="4" t="s">
         <v>23</v>
@@ -3867,9 +4273,15 @@
       <c r="U38" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="39" ht="11" customHeight="true">
-      <c r="A39" s="3" t="n">
+      <c r="V38" s="5">
+        <v>6247547.71</v>
+      </c>
+      <c r="W38" s="5">
+        <v>21602975.18</v>
+      </c>
+    </row>
+    <row r="39" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="3">
         <v>37</v>
       </c>
       <c r="B39" s="4" t="s">
@@ -3881,12 +4293,12 @@
       <c r="D39" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E39" s="4" t="e"/>
-      <c r="F39" s="4" t="e"/>
-      <c r="G39" s="4" t="e"/>
-      <c r="H39" s="4" t="e"/>
-      <c r="I39" s="4" t="e"/>
-      <c r="J39" s="6" t="n">
+      <c r="E39" s="4"/>
+      <c r="F39" s="4"/>
+      <c r="G39" s="4"/>
+      <c r="H39" s="4"/>
+      <c r="I39" s="4"/>
+      <c r="J39" s="6">
         <v>44378362</v>
       </c>
       <c r="K39" s="4" t="s">
@@ -3922,9 +4334,11 @@
       <c r="U39" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="40" ht="11" customHeight="true">
-      <c r="A40" s="3" t="n">
+      <c r="V39" s="4"/>
+      <c r="W39" s="4"/>
+    </row>
+    <row r="40" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A40" s="3">
         <v>38</v>
       </c>
       <c r="B40" s="4" t="s">
@@ -3936,13 +4350,13 @@
       <c r="D40" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E40" s="4" t="e"/>
-      <c r="F40" s="4" t="e"/>
-      <c r="G40" s="4" t="e"/>
-      <c r="H40" s="4" t="e"/>
-      <c r="I40" s="4" t="e"/>
-      <c r="J40" s="5" t="n">
-        <v>153998311.35</v>
+      <c r="E40" s="4"/>
+      <c r="F40" s="4"/>
+      <c r="G40" s="4"/>
+      <c r="H40" s="4"/>
+      <c r="I40" s="4"/>
+      <c r="J40" s="5">
+        <v>153998311.34999999</v>
       </c>
       <c r="K40" s="4" t="s">
         <v>23</v>
@@ -3977,9 +4391,11 @@
       <c r="U40" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="41" ht="11" customHeight="true">
-      <c r="A41" s="3" t="n">
+      <c r="V40" s="4"/>
+      <c r="W40" s="4"/>
+    </row>
+    <row r="41" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A41" s="3">
         <v>39</v>
       </c>
       <c r="B41" s="4" t="s">
@@ -3991,12 +4407,12 @@
       <c r="D41" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E41" s="4" t="e"/>
-      <c r="F41" s="4" t="e"/>
-      <c r="G41" s="4" t="e"/>
-      <c r="H41" s="4" t="e"/>
-      <c r="I41" s="4" t="e"/>
-      <c r="J41" s="6" t="n">
+      <c r="E41" s="4"/>
+      <c r="F41" s="4"/>
+      <c r="G41" s="4"/>
+      <c r="H41" s="4"/>
+      <c r="I41" s="4"/>
+      <c r="J41" s="6">
         <v>2617480</v>
       </c>
       <c r="K41" s="4" t="s">
@@ -4032,9 +4448,11 @@
       <c r="U41" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="42" ht="11" customHeight="true">
-      <c r="A42" s="3" t="n">
+      <c r="V41" s="4"/>
+      <c r="W41" s="4"/>
+    </row>
+    <row r="42" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A42" s="3">
         <v>40</v>
       </c>
       <c r="B42" s="4" t="s">
@@ -4046,12 +4464,12 @@
       <c r="D42" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E42" s="4" t="e"/>
-      <c r="F42" s="4" t="e"/>
-      <c r="G42" s="4" t="e"/>
-      <c r="H42" s="4" t="e"/>
-      <c r="I42" s="4" t="e"/>
-      <c r="J42" s="5" t="n">
+      <c r="E42" s="4"/>
+      <c r="F42" s="4"/>
+      <c r="G42" s="4"/>
+      <c r="H42" s="4"/>
+      <c r="I42" s="4"/>
+      <c r="J42" s="5">
         <v>3752023.01</v>
       </c>
       <c r="K42" s="4" t="s">
@@ -4087,9 +4505,11 @@
       <c r="U42" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="43" ht="11" customHeight="true">
-      <c r="A43" s="3" t="n">
+      <c r="V42" s="4"/>
+      <c r="W42" s="4"/>
+    </row>
+    <row r="43" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A43" s="3">
         <v>41</v>
       </c>
       <c r="B43" s="4" t="s">
@@ -4101,12 +4521,12 @@
       <c r="D43" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E43" s="4" t="e"/>
-      <c r="F43" s="4" t="e"/>
-      <c r="G43" s="4" t="e"/>
-      <c r="H43" s="4" t="e"/>
-      <c r="I43" s="4" t="e"/>
-      <c r="J43" s="5" t="n">
+      <c r="E43" s="4"/>
+      <c r="F43" s="4"/>
+      <c r="G43" s="4"/>
+      <c r="H43" s="4"/>
+      <c r="I43" s="4"/>
+      <c r="J43" s="5">
         <v>2471457.41</v>
       </c>
       <c r="K43" s="4" t="s">
@@ -4142,9 +4562,11 @@
       <c r="U43" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="44" ht="11" customHeight="true">
-      <c r="A44" s="3" t="n">
+      <c r="V43" s="4"/>
+      <c r="W43" s="4"/>
+    </row>
+    <row r="44" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A44" s="3">
         <v>42</v>
       </c>
       <c r="B44" s="4" t="s">
@@ -4156,12 +4578,12 @@
       <c r="D44" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E44" s="4" t="e"/>
-      <c r="F44" s="4" t="e"/>
-      <c r="G44" s="4" t="e"/>
-      <c r="H44" s="4" t="e"/>
-      <c r="I44" s="4" t="e"/>
-      <c r="J44" s="5" t="n">
+      <c r="E44" s="4"/>
+      <c r="F44" s="4"/>
+      <c r="G44" s="4"/>
+      <c r="H44" s="4"/>
+      <c r="I44" s="4"/>
+      <c r="J44" s="5">
         <v>1419066.08</v>
       </c>
       <c r="K44" s="4" t="s">
@@ -4197,9 +4619,11 @@
       <c r="U44" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="45" ht="11" customHeight="true">
-      <c r="A45" s="3" t="n">
+      <c r="V44" s="4"/>
+      <c r="W44" s="4"/>
+    </row>
+    <row r="45" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A45" s="3">
         <v>43</v>
       </c>
       <c r="B45" s="4" t="s">
@@ -4211,12 +4635,12 @@
       <c r="D45" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E45" s="4" t="e"/>
-      <c r="F45" s="4" t="e"/>
-      <c r="G45" s="4" t="e"/>
-      <c r="H45" s="4" t="e"/>
-      <c r="I45" s="4" t="e"/>
-      <c r="J45" s="5" t="n">
+      <c r="E45" s="4"/>
+      <c r="F45" s="4"/>
+      <c r="G45" s="4"/>
+      <c r="H45" s="4"/>
+      <c r="I45" s="4"/>
+      <c r="J45" s="5">
         <v>14021993.18</v>
       </c>
       <c r="K45" s="4" t="s">
@@ -4252,9 +4676,11 @@
       <c r="U45" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="46" ht="11" customHeight="true">
-      <c r="A46" s="3" t="n">
+      <c r="V45" s="4"/>
+      <c r="W45" s="4"/>
+    </row>
+    <row r="46" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A46" s="3">
         <v>44</v>
       </c>
       <c r="B46" s="4" t="s">
@@ -4266,13 +4692,13 @@
       <c r="D46" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E46" s="4" t="e"/>
-      <c r="F46" s="4" t="e"/>
-      <c r="G46" s="4" t="e"/>
-      <c r="H46" s="4" t="e"/>
-      <c r="I46" s="4" t="e"/>
-      <c r="J46" s="5" t="n">
-        <v>22890397.65</v>
+      <c r="E46" s="4"/>
+      <c r="F46" s="4"/>
+      <c r="G46" s="4"/>
+      <c r="H46" s="4"/>
+      <c r="I46" s="4"/>
+      <c r="J46" s="5">
+        <v>22890397.649999999</v>
       </c>
       <c r="K46" s="4" t="s">
         <v>23</v>
@@ -4307,9 +4733,11 @@
       <c r="U46" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="47" ht="11" customHeight="true">
-      <c r="A47" s="3" t="n">
+      <c r="V46" s="4"/>
+      <c r="W46" s="4"/>
+    </row>
+    <row r="47" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A47" s="3">
         <v>45</v>
       </c>
       <c r="B47" s="4" t="s">
@@ -4321,19 +4749,19 @@
       <c r="D47" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E47" s="5" t="n">
-        <v>1249930.13</v>
-      </c>
-      <c r="F47" s="4" t="e"/>
-      <c r="G47" s="5" t="n">
-        <v>1124937.12</v>
-      </c>
-      <c r="H47" s="4" t="e"/>
-      <c r="I47" s="5" t="n">
-        <v>1249930.13</v>
-      </c>
-      <c r="J47" s="5" t="n">
-        <v>5406282.78</v>
+      <c r="E47" s="5">
+        <v>1249930.1299999999</v>
+      </c>
+      <c r="F47" s="4"/>
+      <c r="G47" s="5">
+        <v>1124937.1200000001</v>
+      </c>
+      <c r="H47" s="4"/>
+      <c r="I47" s="5">
+        <v>1249930.1299999999</v>
+      </c>
+      <c r="J47" s="5">
+        <v>5406282.7800000003</v>
       </c>
       <c r="K47" s="4" t="s">
         <v>23</v>
@@ -4368,9 +4796,15 @@
       <c r="U47" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="48" ht="11" customHeight="true">
-      <c r="A48" s="3" t="n">
+      <c r="V47" s="5">
+        <v>1249930.1299999999</v>
+      </c>
+      <c r="W47" s="5">
+        <v>1249930.1299999999</v>
+      </c>
+    </row>
+    <row r="48" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A48" s="3">
         <v>46</v>
       </c>
       <c r="B48" s="4" t="s">
@@ -4382,13 +4816,13 @@
       <c r="D48" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E48" s="4" t="e"/>
-      <c r="F48" s="4" t="e"/>
-      <c r="G48" s="4" t="e"/>
-      <c r="H48" s="4" t="e"/>
-      <c r="I48" s="4" t="e"/>
-      <c r="J48" s="5" t="n">
-        <v>9574014.44</v>
+      <c r="E48" s="4"/>
+      <c r="F48" s="4"/>
+      <c r="G48" s="4"/>
+      <c r="H48" s="4"/>
+      <c r="I48" s="4"/>
+      <c r="J48" s="5">
+        <v>9574014.4399999995</v>
       </c>
       <c r="K48" s="4" t="s">
         <v>23</v>
@@ -4423,9 +4857,11 @@
       <c r="U48" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="49" ht="11" customHeight="true">
-      <c r="A49" s="3" t="n">
+      <c r="V48" s="4"/>
+      <c r="W48" s="4"/>
+    </row>
+    <row r="49" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="3">
         <v>47</v>
       </c>
       <c r="B49" s="4" t="s">
@@ -4437,19 +4873,19 @@
       <c r="D49" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E49" s="5" t="n">
+      <c r="E49" s="5">
         <v>3428053.24</v>
       </c>
-      <c r="F49" s="4" t="e"/>
-      <c r="G49" s="5" t="n">
-        <v>642004.69</v>
-      </c>
-      <c r="H49" s="4" t="e"/>
-      <c r="I49" s="5" t="n">
+      <c r="F49" s="4"/>
+      <c r="G49" s="5">
+        <v>642004.68999999994</v>
+      </c>
+      <c r="H49" s="4"/>
+      <c r="I49" s="5">
         <v>3428053.24</v>
       </c>
-      <c r="J49" s="5" t="n">
-        <v>9772972.91</v>
+      <c r="J49" s="5">
+        <v>9772972.9100000001</v>
       </c>
       <c r="K49" s="4" t="s">
         <v>23</v>
@@ -4484,9 +4920,15 @@
       <c r="U49" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="50" ht="11" customHeight="true">
-      <c r="A50" s="3" t="n">
+      <c r="V49" s="5">
+        <v>3428053.24</v>
+      </c>
+      <c r="W49" s="5">
+        <v>3428053.24</v>
+      </c>
+    </row>
+    <row r="50" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="3">
         <v>48</v>
       </c>
       <c r="B50" s="4" t="s">
@@ -4498,12 +4940,12 @@
       <c r="D50" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E50" s="4" t="e"/>
-      <c r="F50" s="4" t="e"/>
-      <c r="G50" s="4" t="e"/>
-      <c r="H50" s="4" t="e"/>
-      <c r="I50" s="4" t="e"/>
-      <c r="J50" s="5" t="n">
+      <c r="E50" s="4"/>
+      <c r="F50" s="4"/>
+      <c r="G50" s="4"/>
+      <c r="H50" s="4"/>
+      <c r="I50" s="4"/>
+      <c r="J50" s="5">
         <v>3439968.16</v>
       </c>
       <c r="K50" s="4" t="s">
@@ -4539,9 +4981,11 @@
       <c r="U50" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="51" ht="11" customHeight="true">
-      <c r="A51" s="3" t="n">
+      <c r="V50" s="4"/>
+      <c r="W50" s="4"/>
+    </row>
+    <row r="51" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="3">
         <v>49</v>
       </c>
       <c r="B51" s="4" t="s">
@@ -4553,17 +4997,17 @@
       <c r="D51" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E51" s="5" t="n">
-        <v>5724813.63</v>
-      </c>
-      <c r="F51" s="4" t="e"/>
-      <c r="G51" s="4" t="e"/>
-      <c r="H51" s="5" t="n">
-        <v>5724813.63</v>
-      </c>
-      <c r="I51" s="4" t="e"/>
-      <c r="J51" s="7" t="n">
-        <v>24782387.7</v>
+      <c r="E51" s="5">
+        <v>5724813.6299999999</v>
+      </c>
+      <c r="F51" s="4"/>
+      <c r="G51" s="4"/>
+      <c r="H51" s="5">
+        <v>5724813.6299999999</v>
+      </c>
+      <c r="I51" s="4"/>
+      <c r="J51" s="7">
+        <v>24782387.699999999</v>
       </c>
       <c r="K51" s="4" t="s">
         <v>23</v>
@@ -4598,9 +5042,13 @@
       <c r="U51" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="52" ht="11" customHeight="true">
-      <c r="A52" s="3" t="n">
+      <c r="V51" s="4"/>
+      <c r="W51" s="5">
+        <v>5724813.6299999999</v>
+      </c>
+    </row>
+    <row r="52" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="3">
         <v>50</v>
       </c>
       <c r="B52" s="4" t="s">
@@ -4612,13 +5060,13 @@
       <c r="D52" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E52" s="4" t="e"/>
-      <c r="F52" s="4" t="e"/>
-      <c r="G52" s="4" t="e"/>
-      <c r="H52" s="4" t="e"/>
-      <c r="I52" s="4" t="e"/>
-      <c r="J52" s="5" t="n">
-        <v>5855649.02</v>
+      <c r="E52" s="4"/>
+      <c r="F52" s="4"/>
+      <c r="G52" s="4"/>
+      <c r="H52" s="4"/>
+      <c r="I52" s="4"/>
+      <c r="J52" s="5">
+        <v>5855649.0199999996</v>
       </c>
       <c r="K52" s="4" t="s">
         <v>23</v>
@@ -4653,9 +5101,11 @@
       <c r="U52" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="53" ht="11" customHeight="true">
-      <c r="A53" s="3" t="n">
+      <c r="V52" s="4"/>
+      <c r="W52" s="4"/>
+    </row>
+    <row r="53" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="3">
         <v>51</v>
       </c>
       <c r="B53" s="4" t="s">
@@ -4667,12 +5117,12 @@
       <c r="D53" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E53" s="4" t="e"/>
-      <c r="F53" s="4" t="e"/>
-      <c r="G53" s="4" t="e"/>
-      <c r="H53" s="4" t="e"/>
-      <c r="I53" s="4" t="e"/>
-      <c r="J53" s="5" t="n">
+      <c r="E53" s="4"/>
+      <c r="F53" s="4"/>
+      <c r="G53" s="4"/>
+      <c r="H53" s="4"/>
+      <c r="I53" s="4"/>
+      <c r="J53" s="5">
         <v>3919774.79</v>
       </c>
       <c r="K53" s="4" t="s">
@@ -4708,9 +5158,11 @@
       <c r="U53" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="54" ht="11" customHeight="true">
-      <c r="A54" s="3" t="n">
+      <c r="V53" s="4"/>
+      <c r="W53" s="4"/>
+    </row>
+    <row r="54" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="3">
         <v>52</v>
       </c>
       <c r="B54" s="4" t="s">
@@ -4722,19 +5174,19 @@
       <c r="D54" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E54" s="5" t="n">
+      <c r="E54" s="5">
         <v>2869956.75</v>
       </c>
-      <c r="F54" s="5" t="n">
+      <c r="F54" s="5">
         <v>214677.93</v>
       </c>
-      <c r="G54" s="4" t="e"/>
-      <c r="H54" s="4" t="e"/>
-      <c r="I54" s="5" t="n">
+      <c r="G54" s="4"/>
+      <c r="H54" s="4"/>
+      <c r="I54" s="5">
         <v>2869956.75</v>
       </c>
-      <c r="J54" s="5" t="n">
-        <v>9170584.35</v>
+      <c r="J54" s="5">
+        <v>9170584.3499999996</v>
       </c>
       <c r="K54" s="4" t="s">
         <v>23</v>
@@ -4769,9 +5221,15 @@
       <c r="U54" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="55" ht="11" customHeight="true">
-      <c r="A55" s="3" t="n">
+      <c r="V54" s="5">
+        <v>2869956.75</v>
+      </c>
+      <c r="W54" s="5">
+        <v>2869956.75</v>
+      </c>
+    </row>
+    <row r="55" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="3">
         <v>53</v>
       </c>
       <c r="B55" s="4" t="s">
@@ -4783,13 +5241,13 @@
       <c r="D55" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E55" s="4" t="e"/>
-      <c r="F55" s="4" t="e"/>
-      <c r="G55" s="4" t="e"/>
-      <c r="H55" s="4" t="e"/>
-      <c r="I55" s="4" t="e"/>
-      <c r="J55" s="5" t="n">
-        <v>4673900.52</v>
+      <c r="E55" s="4"/>
+      <c r="F55" s="4"/>
+      <c r="G55" s="4"/>
+      <c r="H55" s="4"/>
+      <c r="I55" s="4"/>
+      <c r="J55" s="5">
+        <v>4673900.5199999996</v>
       </c>
       <c r="K55" s="4" t="s">
         <v>23</v>
@@ -4824,9 +5282,11 @@
       <c r="U55" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="56" ht="11" customHeight="true">
-      <c r="A56" s="3" t="n">
+      <c r="V55" s="4"/>
+      <c r="W55" s="4"/>
+    </row>
+    <row r="56" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A56" s="3">
         <v>54</v>
       </c>
       <c r="B56" s="4" t="s">
@@ -4838,20 +5298,20 @@
       <c r="D56" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E56" s="5" t="n">
+      <c r="E56" s="5">
         <v>2695136.99</v>
       </c>
-      <c r="F56" s="5" t="n">
+      <c r="F56" s="5">
         <v>1603768.68</v>
       </c>
-      <c r="G56" s="5" t="n">
+      <c r="G56" s="5">
         <v>381517.84</v>
       </c>
-      <c r="H56" s="4" t="e"/>
-      <c r="I56" s="5" t="n">
+      <c r="H56" s="4"/>
+      <c r="I56" s="5">
         <v>2695136.99</v>
       </c>
-      <c r="J56" s="5" t="n">
+      <c r="J56" s="5">
         <v>3151684.96</v>
       </c>
       <c r="K56" s="4" t="s">
@@ -4887,9 +5347,15 @@
       <c r="U56" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="57" ht="11" customHeight="true">
-      <c r="A57" s="3" t="n">
+      <c r="V56" s="5">
+        <v>2695136.99</v>
+      </c>
+      <c r="W56" s="5">
+        <v>2695136.99</v>
+      </c>
+    </row>
+    <row r="57" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A57" s="3">
         <v>55</v>
       </c>
       <c r="B57" s="4" t="s">
@@ -4901,19 +5367,19 @@
       <c r="D57" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E57" s="5" t="n">
-        <v>5977888.02</v>
-      </c>
-      <c r="F57" s="4" t="e"/>
-      <c r="G57" s="7" t="n">
-        <v>4676514.9</v>
-      </c>
-      <c r="H57" s="4" t="e"/>
-      <c r="I57" s="5" t="n">
-        <v>5977888.02</v>
-      </c>
-      <c r="J57" s="5" t="n">
-        <v>17401314.37</v>
+      <c r="E57" s="5">
+        <v>5977888.0199999996</v>
+      </c>
+      <c r="F57" s="4"/>
+      <c r="G57" s="7">
+        <v>4676514.9000000004</v>
+      </c>
+      <c r="H57" s="4"/>
+      <c r="I57" s="5">
+        <v>5977888.0199999996</v>
+      </c>
+      <c r="J57" s="5">
+        <v>17401314.370000001</v>
       </c>
       <c r="K57" s="4" t="s">
         <v>23</v>
@@ -4948,9 +5414,15 @@
       <c r="U57" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="58" ht="11" customHeight="true">
-      <c r="A58" s="3" t="n">
+      <c r="V57" s="5">
+        <v>5977888.0199999996</v>
+      </c>
+      <c r="W57" s="5">
+        <v>5977888.0199999996</v>
+      </c>
+    </row>
+    <row r="58" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A58" s="3">
         <v>56</v>
       </c>
       <c r="B58" s="4" t="s">
@@ -4962,16 +5434,16 @@
       <c r="D58" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E58" s="5" t="n">
+      <c r="E58" s="5">
         <v>423476.73</v>
       </c>
-      <c r="F58" s="4" t="e"/>
-      <c r="G58" s="4" t="e"/>
-      <c r="H58" s="4" t="e"/>
-      <c r="I58" s="5" t="n">
+      <c r="F58" s="4"/>
+      <c r="G58" s="4"/>
+      <c r="H58" s="4"/>
+      <c r="I58" s="5">
         <v>423476.73</v>
       </c>
-      <c r="J58" s="5" t="n">
+      <c r="J58" s="5">
         <v>555517.89</v>
       </c>
       <c r="K58" s="4" t="s">
@@ -5007,9 +5479,15 @@
       <c r="U58" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="59" ht="11" customHeight="true">
-      <c r="A59" s="3" t="n">
+      <c r="V58" s="5">
+        <v>423476.73</v>
+      </c>
+      <c r="W58" s="5">
+        <v>423476.73</v>
+      </c>
+    </row>
+    <row r="59" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A59" s="3">
         <v>57</v>
       </c>
       <c r="B59" s="4" t="s">
@@ -5021,23 +5499,23 @@
       <c r="D59" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E59" s="5" t="n">
+      <c r="E59" s="5">
         <v>29241460.48</v>
       </c>
-      <c r="F59" s="5" t="n">
-        <v>18951577.33</v>
-      </c>
-      <c r="G59" s="5" t="n">
-        <v>4968087.06</v>
-      </c>
-      <c r="H59" s="5" t="n">
-        <v>18096425.72</v>
-      </c>
-      <c r="I59" s="5" t="n">
+      <c r="F59" s="5">
+        <v>18951577.329999998</v>
+      </c>
+      <c r="G59" s="5">
+        <v>4968087.0599999996</v>
+      </c>
+      <c r="H59" s="5">
+        <v>18096425.719999999</v>
+      </c>
+      <c r="I59" s="5">
         <v>29241460.48</v>
       </c>
-      <c r="J59" s="5" t="n">
-        <v>89181816.61</v>
+      <c r="J59" s="5">
+        <v>89181816.609999999</v>
       </c>
       <c r="K59" s="4" t="s">
         <v>23</v>
@@ -5072,9 +5550,15 @@
       <c r="U59" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="60" ht="11" customHeight="true">
-      <c r="A60" s="3" t="n">
+      <c r="V59" s="5">
+        <v>29241460.48</v>
+      </c>
+      <c r="W59" s="5">
+        <v>29241460.48</v>
+      </c>
+    </row>
+    <row r="60" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A60" s="3">
         <v>58</v>
       </c>
       <c r="B60" s="4" t="s">
@@ -5086,23 +5570,23 @@
       <c r="D60" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E60" s="5" t="n">
-        <v>18096425.72</v>
-      </c>
-      <c r="F60" s="5" t="n">
-        <v>18951577.33</v>
-      </c>
-      <c r="G60" s="5" t="n">
-        <v>4968087.06</v>
-      </c>
-      <c r="H60" s="5" t="n">
-        <v>18096425.72</v>
-      </c>
-      <c r="I60" s="5" t="n">
+      <c r="E60" s="5">
+        <v>18096425.719999999</v>
+      </c>
+      <c r="F60" s="5">
+        <v>18951577.329999998</v>
+      </c>
+      <c r="G60" s="5">
+        <v>4968087.0599999996</v>
+      </c>
+      <c r="H60" s="5">
+        <v>18096425.719999999</v>
+      </c>
+      <c r="I60" s="5">
         <v>29241460.48</v>
       </c>
-      <c r="J60" s="5" t="n">
-        <v>89181816.61</v>
+      <c r="J60" s="5">
+        <v>89181816.609999999</v>
       </c>
       <c r="K60" s="4" t="s">
         <v>23</v>
@@ -5137,9 +5621,15 @@
       <c r="U60" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="61" ht="11" customHeight="true">
-      <c r="A61" s="3" t="n">
+      <c r="V60" s="5">
+        <v>29241460.48</v>
+      </c>
+      <c r="W60" s="5">
+        <v>18096425.719999999</v>
+      </c>
+    </row>
+    <row r="61" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A61" s="3">
         <v>59</v>
       </c>
       <c r="B61" s="4" t="s">
@@ -5151,13 +5641,13 @@
       <c r="D61" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E61" s="4" t="e"/>
-      <c r="F61" s="4" t="e"/>
-      <c r="G61" s="4" t="e"/>
-      <c r="H61" s="4" t="e"/>
-      <c r="I61" s="4" t="e"/>
-      <c r="J61" s="5" t="n">
-        <v>6270872.45</v>
+      <c r="E61" s="4"/>
+      <c r="F61" s="4"/>
+      <c r="G61" s="4"/>
+      <c r="H61" s="4"/>
+      <c r="I61" s="4"/>
+      <c r="J61" s="5">
+        <v>6270872.4500000002</v>
       </c>
       <c r="K61" s="4" t="s">
         <v>23</v>
@@ -5192,9 +5682,11 @@
       <c r="U61" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="62" ht="11" customHeight="true">
-      <c r="A62" s="3" t="n">
+      <c r="V61" s="4"/>
+      <c r="W61" s="4"/>
+    </row>
+    <row r="62" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="3">
         <v>60</v>
       </c>
       <c r="B62" s="4" t="s">
@@ -5206,13 +5698,13 @@
       <c r="D62" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E62" s="4" t="e"/>
-      <c r="F62" s="4" t="e"/>
-      <c r="G62" s="4" t="e"/>
-      <c r="H62" s="4" t="e"/>
-      <c r="I62" s="4" t="e"/>
-      <c r="J62" s="5" t="n">
-        <v>39836760.08</v>
+      <c r="E62" s="4"/>
+      <c r="F62" s="4"/>
+      <c r="G62" s="4"/>
+      <c r="H62" s="4"/>
+      <c r="I62" s="4"/>
+      <c r="J62" s="5">
+        <v>39836760.079999998</v>
       </c>
       <c r="K62" s="4" t="s">
         <v>23</v>
@@ -5247,9 +5739,11 @@
       <c r="U62" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="63" ht="11" customHeight="true">
-      <c r="A63" s="3" t="n">
+      <c r="V62" s="4"/>
+      <c r="W62" s="4"/>
+    </row>
+    <row r="63" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="3">
         <v>61</v>
       </c>
       <c r="B63" s="4" t="s">
@@ -5261,18 +5755,18 @@
       <c r="D63" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E63" s="5" t="n">
+      <c r="E63" s="5">
         <v>4160470.78</v>
       </c>
-      <c r="F63" s="4" t="e"/>
-      <c r="G63" s="7" t="n">
+      <c r="F63" s="4"/>
+      <c r="G63" s="7">
         <v>3744423.7</v>
       </c>
-      <c r="H63" s="4" t="e"/>
-      <c r="I63" s="5" t="n">
+      <c r="H63" s="4"/>
+      <c r="I63" s="5">
         <v>4160470.78</v>
       </c>
-      <c r="J63" s="5" t="n">
+      <c r="J63" s="5">
         <v>12062417.82</v>
       </c>
       <c r="K63" s="4" t="s">
@@ -5308,9 +5802,15 @@
       <c r="U63" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="64" ht="11" customHeight="true">
-      <c r="A64" s="3" t="n">
+      <c r="V63" s="5">
+        <v>4160470.78</v>
+      </c>
+      <c r="W63" s="5">
+        <v>4160470.78</v>
+      </c>
+    </row>
+    <row r="64" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="3">
         <v>62</v>
       </c>
       <c r="B64" s="4" t="s">
@@ -5322,22 +5822,22 @@
       <c r="D64" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E64" s="5" t="n">
+      <c r="E64" s="5">
         <v>7453287.71</v>
       </c>
-      <c r="F64" s="5" t="n">
+      <c r="F64" s="5">
         <v>1611596.19</v>
       </c>
-      <c r="G64" s="5" t="n">
+      <c r="G64" s="5">
         <v>4172962.85</v>
       </c>
-      <c r="H64" s="5" t="n">
+      <c r="H64" s="5">
         <v>1790662.43</v>
       </c>
-      <c r="I64" s="5" t="n">
+      <c r="I64" s="5">
         <v>7453287.71</v>
       </c>
-      <c r="J64" s="5" t="n">
+      <c r="J64" s="5">
         <v>10139982.91</v>
       </c>
       <c r="K64" s="4" t="s">
@@ -5373,9 +5873,15 @@
       <c r="U64" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="65" ht="11" customHeight="true">
-      <c r="A65" s="3" t="n">
+      <c r="V64" s="5">
+        <v>7453287.71</v>
+      </c>
+      <c r="W64" s="5">
+        <v>7453287.71</v>
+      </c>
+    </row>
+    <row r="65" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A65" s="3">
         <v>63</v>
       </c>
       <c r="B65" s="4" t="s">
@@ -5387,22 +5893,22 @@
       <c r="D65" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E65" s="5" t="n">
+      <c r="E65" s="5">
         <v>1790662.43</v>
       </c>
-      <c r="F65" s="5" t="n">
+      <c r="F65" s="5">
         <v>1611596.19</v>
       </c>
-      <c r="G65" s="5" t="n">
+      <c r="G65" s="5">
         <v>4172962.85</v>
       </c>
-      <c r="H65" s="5" t="n">
+      <c r="H65" s="5">
         <v>1790662.43</v>
       </c>
-      <c r="I65" s="5" t="n">
+      <c r="I65" s="5">
         <v>7453287.71</v>
       </c>
-      <c r="J65" s="5" t="n">
+      <c r="J65" s="5">
         <v>10139982.91</v>
       </c>
       <c r="K65" s="4" t="s">
@@ -5438,9 +5944,15 @@
       <c r="U65" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="66" ht="11" customHeight="true">
-      <c r="A66" s="3" t="n">
+      <c r="V65" s="5">
+        <v>7453287.71</v>
+      </c>
+      <c r="W65" s="5">
+        <v>1790662.43</v>
+      </c>
+    </row>
+    <row r="66" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A66" s="3">
         <v>64</v>
       </c>
       <c r="B66" s="4" t="s">
@@ -5452,12 +5964,12 @@
       <c r="D66" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E66" s="4" t="e"/>
-      <c r="F66" s="4" t="e"/>
-      <c r="G66" s="4" t="e"/>
-      <c r="H66" s="4" t="e"/>
-      <c r="I66" s="4" t="e"/>
-      <c r="J66" s="3" t="n">
+      <c r="E66" s="4"/>
+      <c r="F66" s="4"/>
+      <c r="G66" s="4"/>
+      <c r="H66" s="4"/>
+      <c r="I66" s="4"/>
+      <c r="J66" s="3">
         <v>0</v>
       </c>
       <c r="K66" s="4" t="s">
@@ -5493,9 +6005,11 @@
       <c r="U66" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="67" ht="11" customHeight="true">
-      <c r="A67" s="3" t="n">
+      <c r="V66" s="4"/>
+      <c r="W66" s="4"/>
+    </row>
+    <row r="67" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A67" s="3">
         <v>65</v>
       </c>
       <c r="B67" s="4" t="s">
@@ -5507,19 +6021,19 @@
       <c r="D67" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E67" s="5" t="n">
-        <v>22039339.47</v>
-      </c>
-      <c r="F67" s="4" t="e"/>
-      <c r="G67" s="5" t="n">
-        <v>19835405.53</v>
-      </c>
-      <c r="H67" s="4" t="e"/>
-      <c r="I67" s="5" t="n">
-        <v>22039339.47</v>
-      </c>
-      <c r="J67" s="5" t="n">
-        <v>34902285.05</v>
+      <c r="E67" s="5">
+        <v>22039339.469999999</v>
+      </c>
+      <c r="F67" s="4"/>
+      <c r="G67" s="5">
+        <v>19835405.530000001</v>
+      </c>
+      <c r="H67" s="4"/>
+      <c r="I67" s="5">
+        <v>22039339.469999999</v>
+      </c>
+      <c r="J67" s="5">
+        <v>34902285.049999997</v>
       </c>
       <c r="K67" s="4" t="s">
         <v>23</v>
@@ -5554,9 +6068,15 @@
       <c r="U67" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="68" ht="11" customHeight="true">
-      <c r="A68" s="3" t="n">
+      <c r="V67" s="5">
+        <v>22039339.469999999</v>
+      </c>
+      <c r="W67" s="5">
+        <v>22039339.469999999</v>
+      </c>
+    </row>
+    <row r="68" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A68" s="3">
         <v>66</v>
       </c>
       <c r="B68" s="4" t="s">
@@ -5568,19 +6088,19 @@
       <c r="D68" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E68" s="5" t="n">
+      <c r="E68" s="5">
         <v>5327840.13</v>
       </c>
-      <c r="F68" s="4" t="e"/>
-      <c r="G68" s="5" t="n">
-        <v>4814601.69</v>
-      </c>
-      <c r="H68" s="4" t="e"/>
-      <c r="I68" s="5" t="n">
+      <c r="F68" s="4"/>
+      <c r="G68" s="5">
+        <v>4814601.6900000004</v>
+      </c>
+      <c r="H68" s="4"/>
+      <c r="I68" s="5">
         <v>5327840.13</v>
       </c>
-      <c r="J68" s="5" t="n">
-        <v>6502784.87</v>
+      <c r="J68" s="5">
+        <v>6502784.8700000001</v>
       </c>
       <c r="K68" s="4" t="s">
         <v>23</v>
@@ -5615,9 +6135,15 @@
       <c r="U68" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="69" ht="11" customHeight="true">
-      <c r="A69" s="3" t="n">
+      <c r="V68" s="5">
+        <v>5327840.13</v>
+      </c>
+      <c r="W68" s="5">
+        <v>5327840.13</v>
+      </c>
+    </row>
+    <row r="69" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="3">
         <v>67</v>
       </c>
       <c r="B69" s="4" t="s">
@@ -5629,13 +6155,13 @@
       <c r="D69" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E69" s="4" t="e"/>
-      <c r="F69" s="4" t="e"/>
-      <c r="G69" s="4" t="e"/>
-      <c r="H69" s="4" t="e"/>
-      <c r="I69" s="4" t="e"/>
-      <c r="J69" s="5" t="n">
-        <v>85603196.51</v>
+      <c r="E69" s="4"/>
+      <c r="F69" s="4"/>
+      <c r="G69" s="4"/>
+      <c r="H69" s="4"/>
+      <c r="I69" s="4"/>
+      <c r="J69" s="5">
+        <v>85603196.510000005</v>
       </c>
       <c r="K69" s="4" t="s">
         <v>23</v>
@@ -5670,9 +6196,11 @@
       <c r="U69" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="70" ht="11" customHeight="true">
-      <c r="A70" s="3" t="n">
+      <c r="V69" s="4"/>
+      <c r="W69" s="4"/>
+    </row>
+    <row r="70" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="3">
         <v>68</v>
       </c>
       <c r="B70" s="4" t="s">
@@ -5684,19 +6212,19 @@
       <c r="D70" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E70" s="5" t="n">
-        <v>72084470.38</v>
-      </c>
-      <c r="F70" s="4" t="e"/>
-      <c r="G70" s="5" t="n">
-        <v>64876023.34</v>
-      </c>
-      <c r="H70" s="4" t="e"/>
-      <c r="I70" s="5" t="n">
-        <v>72084470.38</v>
-      </c>
-      <c r="J70" s="7" t="n">
-        <v>149768018.9</v>
+      <c r="E70" s="5">
+        <v>72084470.379999995</v>
+      </c>
+      <c r="F70" s="4"/>
+      <c r="G70" s="5">
+        <v>64876023.340000004</v>
+      </c>
+      <c r="H70" s="4"/>
+      <c r="I70" s="5">
+        <v>72084470.379999995</v>
+      </c>
+      <c r="J70" s="7">
+        <v>149768018.90000001</v>
       </c>
       <c r="K70" s="4" t="s">
         <v>23</v>
@@ -5731,9 +6259,15 @@
       <c r="U70" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="71" ht="11" customHeight="true">
-      <c r="A71" s="3" t="n">
+      <c r="V70" s="5">
+        <v>72084470.379999995</v>
+      </c>
+      <c r="W70" s="5">
+        <v>72084470.379999995</v>
+      </c>
+    </row>
+    <row r="71" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A71" s="3">
         <v>69</v>
       </c>
       <c r="B71" s="4" t="s">
@@ -5745,13 +6279,13 @@
       <c r="D71" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E71" s="4" t="e"/>
-      <c r="F71" s="4" t="e"/>
-      <c r="G71" s="4" t="e"/>
-      <c r="H71" s="4" t="e"/>
-      <c r="I71" s="4" t="e"/>
-      <c r="J71" s="5" t="n">
-        <v>69168782.35</v>
+      <c r="E71" s="4"/>
+      <c r="F71" s="4"/>
+      <c r="G71" s="4"/>
+      <c r="H71" s="4"/>
+      <c r="I71" s="4"/>
+      <c r="J71" s="5">
+        <v>69168782.349999994</v>
       </c>
       <c r="K71" s="4" t="s">
         <v>23</v>
@@ -5786,9 +6320,11 @@
       <c r="U71" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="72" ht="11" customHeight="true">
-      <c r="A72" s="3" t="n">
+      <c r="V71" s="4"/>
+      <c r="W71" s="4"/>
+    </row>
+    <row r="72" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A72" s="3">
         <v>70</v>
       </c>
       <c r="B72" s="4" t="s">
@@ -5800,13 +6336,13 @@
       <c r="D72" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E72" s="4" t="e"/>
-      <c r="F72" s="4" t="e"/>
-      <c r="G72" s="4" t="e"/>
-      <c r="H72" s="4" t="e"/>
-      <c r="I72" s="4" t="e"/>
-      <c r="J72" s="5" t="n">
-        <v>64892269.01</v>
+      <c r="E72" s="4"/>
+      <c r="F72" s="4"/>
+      <c r="G72" s="4"/>
+      <c r="H72" s="4"/>
+      <c r="I72" s="4"/>
+      <c r="J72" s="5">
+        <v>64892269.009999998</v>
       </c>
       <c r="K72" s="4" t="s">
         <v>23</v>
@@ -5841,9 +6377,11 @@
       <c r="U72" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="73" ht="11" customHeight="true">
-      <c r="A73" s="3" t="n">
+      <c r="V72" s="4"/>
+      <c r="W72" s="4"/>
+    </row>
+    <row r="73" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A73" s="3">
         <v>71</v>
       </c>
       <c r="B73" s="4" t="s">
@@ -5855,12 +6393,12 @@
       <c r="D73" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E73" s="4" t="e"/>
-      <c r="F73" s="4" t="e"/>
-      <c r="G73" s="4" t="e"/>
-      <c r="H73" s="4" t="e"/>
-      <c r="I73" s="4" t="e"/>
-      <c r="J73" s="5" t="n">
+      <c r="E73" s="4"/>
+      <c r="F73" s="4"/>
+      <c r="G73" s="4"/>
+      <c r="H73" s="4"/>
+      <c r="I73" s="4"/>
+      <c r="J73" s="5">
         <v>216566466.22</v>
       </c>
       <c r="K73" s="4" t="s">
@@ -5896,9 +6434,11 @@
       <c r="U73" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="74" ht="11" customHeight="true">
-      <c r="A74" s="3" t="n">
+      <c r="V73" s="4"/>
+      <c r="W73" s="4"/>
+    </row>
+    <row r="74" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A74" s="3">
         <v>72</v>
       </c>
       <c r="B74" s="4" t="s">
@@ -5910,12 +6450,12 @@
       <c r="D74" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E74" s="4" t="e"/>
-      <c r="F74" s="4" t="e"/>
-      <c r="G74" s="4" t="e"/>
-      <c r="H74" s="4" t="e"/>
-      <c r="I74" s="4" t="e"/>
-      <c r="J74" s="5" t="n">
+      <c r="E74" s="4"/>
+      <c r="F74" s="4"/>
+      <c r="G74" s="4"/>
+      <c r="H74" s="4"/>
+      <c r="I74" s="4"/>
+      <c r="J74" s="5">
         <v>1066249.27</v>
       </c>
       <c r="K74" s="4" t="s">
@@ -5951,9 +6491,11 @@
       <c r="U74" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="75" ht="11" customHeight="true">
-      <c r="A75" s="3" t="n">
+      <c r="V74" s="4"/>
+      <c r="W74" s="4"/>
+    </row>
+    <row r="75" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A75" s="3">
         <v>73</v>
       </c>
       <c r="B75" s="4" t="s">
@@ -5965,20 +6507,20 @@
       <c r="D75" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E75" s="5" t="n">
-        <v>5892168.99</v>
-      </c>
-      <c r="F75" s="5" t="n">
+      <c r="E75" s="5">
+        <v>5892168.9900000002</v>
+      </c>
+      <c r="F75" s="5">
         <v>152716.82</v>
       </c>
-      <c r="G75" s="5" t="n">
-        <v>4302793.11</v>
-      </c>
-      <c r="H75" s="4" t="e"/>
-      <c r="I75" s="5" t="n">
-        <v>5892168.99</v>
-      </c>
-      <c r="J75" s="6" t="n">
+      <c r="G75" s="5">
+        <v>4302793.1100000003</v>
+      </c>
+      <c r="H75" s="4"/>
+      <c r="I75" s="5">
+        <v>5892168.9900000002</v>
+      </c>
+      <c r="J75" s="6">
         <v>6073186</v>
       </c>
       <c r="K75" s="4" t="s">
@@ -6014,9 +6556,15 @@
       <c r="U75" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="76" ht="11" customHeight="true">
-      <c r="A76" s="3" t="n">
+      <c r="V75" s="5">
+        <v>5892168.9900000002</v>
+      </c>
+      <c r="W75" s="5">
+        <v>5892168.9900000002</v>
+      </c>
+    </row>
+    <row r="76" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A76" s="3">
         <v>74</v>
       </c>
       <c r="B76" s="4" t="s">
@@ -6028,20 +6576,20 @@
       <c r="D76" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E76" s="5" t="n">
+      <c r="E76" s="5">
         <v>3590989.36</v>
       </c>
-      <c r="F76" s="5" t="n">
+      <c r="F76" s="5">
         <v>751702.63</v>
       </c>
-      <c r="G76" s="5" t="n">
+      <c r="G76" s="5">
         <v>1958829.19</v>
       </c>
-      <c r="H76" s="4" t="e"/>
-      <c r="I76" s="5" t="n">
+      <c r="H76" s="4"/>
+      <c r="I76" s="5">
         <v>3590989.36</v>
       </c>
-      <c r="J76" s="5" t="n">
+      <c r="J76" s="5">
         <v>3688668.53</v>
       </c>
       <c r="K76" s="4" t="s">
@@ -6077,9 +6625,15 @@
       <c r="U76" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="77" ht="11" customHeight="true">
-      <c r="A77" s="3" t="n">
+      <c r="V76" s="5">
+        <v>3590989.36</v>
+      </c>
+      <c r="W76" s="5">
+        <v>3590989.36</v>
+      </c>
+    </row>
+    <row r="77" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A77" s="3">
         <v>75</v>
       </c>
       <c r="B77" s="4" t="s">
@@ -6091,19 +6645,19 @@
       <c r="D77" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E77" s="5" t="n">
+      <c r="E77" s="5">
         <v>3124094.44</v>
       </c>
-      <c r="F77" s="4" t="e"/>
-      <c r="G77" s="5" t="n">
+      <c r="F77" s="4"/>
+      <c r="G77" s="5">
         <v>1660121.27</v>
       </c>
-      <c r="H77" s="4" t="e"/>
-      <c r="I77" s="5" t="n">
+      <c r="H77" s="4"/>
+      <c r="I77" s="5">
         <v>3124094.44</v>
       </c>
-      <c r="J77" s="5" t="n">
-        <v>10172020.22</v>
+      <c r="J77" s="5">
+        <v>10172020.220000001</v>
       </c>
       <c r="K77" s="4" t="s">
         <v>23</v>
@@ -6138,9 +6692,15 @@
       <c r="U77" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="78" ht="11" customHeight="true">
-      <c r="A78" s="3" t="n">
+      <c r="V77" s="5">
+        <v>3124094.44</v>
+      </c>
+      <c r="W77" s="5">
+        <v>3124094.44</v>
+      </c>
+    </row>
+    <row r="78" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A78" s="3">
         <v>76</v>
       </c>
       <c r="B78" s="4" t="s">
@@ -6152,12 +6712,12 @@
       <c r="D78" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E78" s="4" t="e"/>
-      <c r="F78" s="4" t="e"/>
-      <c r="G78" s="4" t="e"/>
-      <c r="H78" s="4" t="e"/>
-      <c r="I78" s="4" t="e"/>
-      <c r="J78" s="5" t="n">
+      <c r="E78" s="4"/>
+      <c r="F78" s="4"/>
+      <c r="G78" s="4"/>
+      <c r="H78" s="4"/>
+      <c r="I78" s="4"/>
+      <c r="J78" s="5">
         <v>1500967.28</v>
       </c>
       <c r="K78" s="4" t="s">
@@ -6193,9 +6753,11 @@
       <c r="U78" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="79" ht="11" customHeight="true">
-      <c r="A79" s="3" t="n">
+      <c r="V78" s="4"/>
+      <c r="W78" s="4"/>
+    </row>
+    <row r="79" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A79" s="3">
         <v>77</v>
       </c>
       <c r="B79" s="4" t="s">
@@ -6207,20 +6769,20 @@
       <c r="D79" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E79" s="5" t="n">
-        <v>64678409.34</v>
-      </c>
-      <c r="F79" s="5" t="n">
+      <c r="E79" s="5">
+        <v>64678409.340000004</v>
+      </c>
+      <c r="F79" s="5">
         <v>3323738.49</v>
       </c>
-      <c r="G79" s="5" t="n">
-        <v>51491747.17</v>
-      </c>
-      <c r="H79" s="4" t="e"/>
-      <c r="I79" s="5" t="n">
-        <v>64678409.34</v>
-      </c>
-      <c r="J79" s="5" t="n">
+      <c r="G79" s="5">
+        <v>51491747.170000002</v>
+      </c>
+      <c r="H79" s="4"/>
+      <c r="I79" s="5">
+        <v>64678409.340000004</v>
+      </c>
+      <c r="J79" s="5">
         <v>70808399.25</v>
       </c>
       <c r="K79" s="4" t="s">
@@ -6256,9 +6818,15 @@
       <c r="U79" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="80" ht="11" customHeight="true">
-      <c r="A80" s="3" t="n">
+      <c r="V79" s="5">
+        <v>64678409.340000004</v>
+      </c>
+      <c r="W79" s="5">
+        <v>64678409.340000004</v>
+      </c>
+    </row>
+    <row r="80" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A80" s="3">
         <v>78</v>
       </c>
       <c r="B80" s="4" t="s">
@@ -6270,13 +6838,13 @@
       <c r="D80" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E80" s="4" t="e"/>
-      <c r="F80" s="4" t="e"/>
-      <c r="G80" s="4" t="e"/>
-      <c r="H80" s="4" t="e"/>
-      <c r="I80" s="4" t="e"/>
-      <c r="J80" s="5" t="n">
-        <v>11312056.47</v>
+      <c r="E80" s="4"/>
+      <c r="F80" s="4"/>
+      <c r="G80" s="4"/>
+      <c r="H80" s="4"/>
+      <c r="I80" s="4"/>
+      <c r="J80" s="5">
+        <v>11312056.470000001</v>
       </c>
       <c r="K80" s="4" t="s">
         <v>23</v>
@@ -6311,9 +6879,11 @@
       <c r="U80" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="81" ht="11" customHeight="true">
-      <c r="A81" s="3" t="n">
+      <c r="V80" s="4"/>
+      <c r="W80" s="4"/>
+    </row>
+    <row r="81" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A81" s="3">
         <v>79</v>
       </c>
       <c r="B81" s="4" t="s">
@@ -6325,18 +6895,18 @@
       <c r="D81" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E81" s="5" t="n">
-        <v>12787784.31</v>
-      </c>
-      <c r="F81" s="4" t="e"/>
-      <c r="G81" s="5" t="n">
-        <v>5457013.99</v>
-      </c>
-      <c r="H81" s="4" t="e"/>
-      <c r="I81" s="5" t="n">
-        <v>12787784.31</v>
-      </c>
-      <c r="J81" s="5" t="n">
+      <c r="E81" s="5">
+        <v>12787784.310000001</v>
+      </c>
+      <c r="F81" s="4"/>
+      <c r="G81" s="5">
+        <v>5457013.9900000002</v>
+      </c>
+      <c r="H81" s="4"/>
+      <c r="I81" s="5">
+        <v>12787784.310000001</v>
+      </c>
+      <c r="J81" s="5">
         <v>28765892.84</v>
       </c>
       <c r="K81" s="4" t="s">
@@ -6372,9 +6942,15 @@
       <c r="U81" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="82" ht="11" customHeight="true">
-      <c r="A82" s="3" t="n">
+      <c r="V81" s="5">
+        <v>12787784.310000001</v>
+      </c>
+      <c r="W81" s="5">
+        <v>12787784.310000001</v>
+      </c>
+    </row>
+    <row r="82" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A82" s="3">
         <v>80</v>
       </c>
       <c r="B82" s="4" t="s">
@@ -6386,13 +6962,13 @@
       <c r="D82" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E82" s="4" t="e"/>
-      <c r="F82" s="4" t="e"/>
-      <c r="G82" s="4" t="e"/>
-      <c r="H82" s="4" t="e"/>
-      <c r="I82" s="4" t="e"/>
-      <c r="J82" s="7" t="n">
-        <v>8908403.1</v>
+      <c r="E82" s="4"/>
+      <c r="F82" s="4"/>
+      <c r="G82" s="4"/>
+      <c r="H82" s="4"/>
+      <c r="I82" s="4"/>
+      <c r="J82" s="7">
+        <v>8908403.0999999996</v>
       </c>
       <c r="K82" s="4" t="s">
         <v>23</v>
@@ -6427,9 +7003,11 @@
       <c r="U82" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="83" ht="11" customHeight="true">
-      <c r="A83" s="3" t="n">
+      <c r="V82" s="4"/>
+      <c r="W82" s="4"/>
+    </row>
+    <row r="83" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A83" s="3">
         <v>81</v>
       </c>
       <c r="B83" s="4" t="s">
@@ -6441,13 +7019,13 @@
       <c r="D83" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E83" s="4" t="e"/>
-      <c r="F83" s="4" t="e"/>
-      <c r="G83" s="4" t="e"/>
-      <c r="H83" s="4" t="e"/>
-      <c r="I83" s="4" t="e"/>
-      <c r="J83" s="5" t="n">
-        <v>2509263.05</v>
+      <c r="E83" s="4"/>
+      <c r="F83" s="4"/>
+      <c r="G83" s="4"/>
+      <c r="H83" s="4"/>
+      <c r="I83" s="4"/>
+      <c r="J83" s="5">
+        <v>2509263.0499999998</v>
       </c>
       <c r="K83" s="4" t="s">
         <v>23</v>
@@ -6482,9 +7060,11 @@
       <c r="U83" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="84" ht="11" customHeight="true">
-      <c r="A84" s="3" t="n">
+      <c r="V83" s="4"/>
+      <c r="W83" s="4"/>
+    </row>
+    <row r="84" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A84" s="3">
         <v>82</v>
       </c>
       <c r="B84" s="4" t="s">
@@ -6496,19 +7076,19 @@
       <c r="D84" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E84" s="5" t="n">
-        <v>37085161.21</v>
-      </c>
-      <c r="F84" s="4" t="e"/>
-      <c r="G84" s="5" t="n">
-        <v>28370729.95</v>
-      </c>
-      <c r="H84" s="4" t="e"/>
-      <c r="I84" s="5" t="n">
-        <v>37085161.21</v>
-      </c>
-      <c r="J84" s="5" t="n">
-        <v>52509826.99</v>
+      <c r="E84" s="5">
+        <v>37085161.210000001</v>
+      </c>
+      <c r="F84" s="4"/>
+      <c r="G84" s="5">
+        <v>28370729.949999999</v>
+      </c>
+      <c r="H84" s="4"/>
+      <c r="I84" s="5">
+        <v>37085161.210000001</v>
+      </c>
+      <c r="J84" s="5">
+        <v>52509826.990000002</v>
       </c>
       <c r="K84" s="4" t="s">
         <v>23</v>
@@ -6543,9 +7123,15 @@
       <c r="U84" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="85" ht="11" customHeight="true">
-      <c r="A85" s="3" t="n">
+      <c r="V84" s="5">
+        <v>37085161.210000001</v>
+      </c>
+      <c r="W84" s="5">
+        <v>37085161.210000001</v>
+      </c>
+    </row>
+    <row r="85" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A85" s="3">
         <v>83</v>
       </c>
       <c r="B85" s="4" t="s">
@@ -6557,13 +7143,13 @@
       <c r="D85" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E85" s="4" t="e"/>
-      <c r="F85" s="4" t="e"/>
-      <c r="G85" s="4" t="e"/>
-      <c r="H85" s="4" t="e"/>
-      <c r="I85" s="4" t="e"/>
-      <c r="J85" s="5" t="n">
-        <v>20895239.86</v>
+      <c r="E85" s="4"/>
+      <c r="F85" s="4"/>
+      <c r="G85" s="4"/>
+      <c r="H85" s="4"/>
+      <c r="I85" s="4"/>
+      <c r="J85" s="5">
+        <v>20895239.859999999</v>
       </c>
       <c r="K85" s="4" t="s">
         <v>23</v>
@@ -6598,9 +7184,11 @@
       <c r="U85" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="86" ht="11" customHeight="true">
-      <c r="A86" s="3" t="n">
+      <c r="V85" s="4"/>
+      <c r="W85" s="4"/>
+    </row>
+    <row r="86" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A86" s="3">
         <v>84</v>
       </c>
       <c r="B86" s="4" t="s">
@@ -6612,21 +7200,21 @@
       <c r="D86" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E86" s="5" t="n">
+      <c r="E86" s="5">
         <v>17145870.75</v>
       </c>
-      <c r="F86" s="5" t="n">
-        <v>18435554.71</v>
-      </c>
-      <c r="G86" s="4" t="e"/>
-      <c r="H86" s="5" t="n">
+      <c r="F86" s="5">
+        <v>18435554.710000001</v>
+      </c>
+      <c r="G86" s="4"/>
+      <c r="H86" s="5">
         <v>5105264.78</v>
       </c>
-      <c r="I86" s="5" t="n">
+      <c r="I86" s="5">
         <v>17145870.75</v>
       </c>
-      <c r="J86" s="5" t="n">
-        <v>27731917.49</v>
+      <c r="J86" s="5">
+        <v>27731917.489999998</v>
       </c>
       <c r="K86" s="4" t="s">
         <v>23</v>
@@ -6661,9 +7249,15 @@
       <c r="U86" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="87" ht="11" customHeight="true">
-      <c r="A87" s="3" t="n">
+      <c r="V86" s="5">
+        <v>17145870.75</v>
+      </c>
+      <c r="W86" s="5">
+        <v>17145870.75</v>
+      </c>
+    </row>
+    <row r="87" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A87" s="3">
         <v>85</v>
       </c>
       <c r="B87" s="4" t="s">
@@ -6675,21 +7269,21 @@
       <c r="D87" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E87" s="5" t="n">
+      <c r="E87" s="5">
         <v>5105264.78</v>
       </c>
-      <c r="F87" s="5" t="n">
-        <v>18435554.71</v>
-      </c>
-      <c r="G87" s="4" t="e"/>
-      <c r="H87" s="5" t="n">
+      <c r="F87" s="5">
+        <v>18435554.710000001</v>
+      </c>
+      <c r="G87" s="4"/>
+      <c r="H87" s="5">
         <v>5105264.78</v>
       </c>
-      <c r="I87" s="5" t="n">
+      <c r="I87" s="5">
         <v>17145870.75</v>
       </c>
-      <c r="J87" s="5" t="n">
-        <v>27731917.49</v>
+      <c r="J87" s="5">
+        <v>27731917.489999998</v>
       </c>
       <c r="K87" s="4" t="s">
         <v>23</v>
@@ -6724,9 +7318,15 @@
       <c r="U87" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="88" ht="11" customHeight="true">
-      <c r="A88" s="3" t="n">
+      <c r="V87" s="5">
+        <v>17145870.75</v>
+      </c>
+      <c r="W87" s="5">
+        <v>5105264.78</v>
+      </c>
+    </row>
+    <row r="88" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A88" s="3">
         <v>86</v>
       </c>
       <c r="B88" s="4" t="s">
@@ -6738,13 +7338,13 @@
       <c r="D88" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E88" s="4" t="e"/>
-      <c r="F88" s="4" t="e"/>
-      <c r="G88" s="4" t="e"/>
-      <c r="H88" s="4" t="e"/>
-      <c r="I88" s="4" t="e"/>
-      <c r="J88" s="5" t="n">
-        <v>25868655.39</v>
+      <c r="E88" s="4"/>
+      <c r="F88" s="4"/>
+      <c r="G88" s="4"/>
+      <c r="H88" s="4"/>
+      <c r="I88" s="4"/>
+      <c r="J88" s="5">
+        <v>25868655.390000001</v>
       </c>
       <c r="K88" s="4" t="s">
         <v>23</v>
@@ -6779,9 +7379,11 @@
       <c r="U88" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="89" ht="11" customHeight="true">
-      <c r="A89" s="3" t="n">
+      <c r="V88" s="4"/>
+      <c r="W88" s="4"/>
+    </row>
+    <row r="89" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A89" s="3">
         <v>87</v>
       </c>
       <c r="B89" s="4" t="s">
@@ -6793,19 +7395,19 @@
       <c r="D89" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E89" s="5" t="n">
+      <c r="E89" s="5">
         <v>3287400.53</v>
       </c>
-      <c r="F89" s="4" t="e"/>
-      <c r="G89" s="5" t="n">
+      <c r="F89" s="4"/>
+      <c r="G89" s="5">
         <v>2048272.01</v>
       </c>
-      <c r="H89" s="4" t="e"/>
-      <c r="I89" s="5" t="n">
+      <c r="H89" s="4"/>
+      <c r="I89" s="5">
         <v>3287400.53</v>
       </c>
-      <c r="J89" s="5" t="n">
-        <v>7424101.68</v>
+      <c r="J89" s="5">
+        <v>7424101.6799999997</v>
       </c>
       <c r="K89" s="4" t="s">
         <v>23</v>
@@ -6840,9 +7442,15 @@
       <c r="U89" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="90" ht="11" customHeight="true">
-      <c r="A90" s="3" t="n">
+      <c r="V89" s="5">
+        <v>3287400.53</v>
+      </c>
+      <c r="W89" s="5">
+        <v>3287400.53</v>
+      </c>
+    </row>
+    <row r="90" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A90" s="3">
         <v>88</v>
       </c>
       <c r="B90" s="4" t="s">
@@ -6854,13 +7462,13 @@
       <c r="D90" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E90" s="4" t="e"/>
-      <c r="F90" s="4" t="e"/>
-      <c r="G90" s="4" t="e"/>
-      <c r="H90" s="4" t="e"/>
-      <c r="I90" s="4" t="e"/>
-      <c r="J90" s="5" t="n">
-        <v>36410593.78</v>
+      <c r="E90" s="4"/>
+      <c r="F90" s="4"/>
+      <c r="G90" s="4"/>
+      <c r="H90" s="4"/>
+      <c r="I90" s="4"/>
+      <c r="J90" s="5">
+        <v>36410593.780000001</v>
       </c>
       <c r="K90" s="4" t="s">
         <v>23</v>
@@ -6895,9 +7503,11 @@
       <c r="U90" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="91" ht="11" customHeight="true">
-      <c r="A91" s="3" t="n">
+      <c r="V90" s="4"/>
+      <c r="W90" s="4"/>
+    </row>
+    <row r="91" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A91" s="3">
         <v>89</v>
       </c>
       <c r="B91" s="4" t="s">
@@ -6909,13 +7519,13 @@
       <c r="D91" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E91" s="4" t="e"/>
-      <c r="F91" s="4" t="e"/>
-      <c r="G91" s="4" t="e"/>
-      <c r="H91" s="4" t="e"/>
-      <c r="I91" s="4" t="e"/>
-      <c r="J91" s="5" t="n">
-        <v>16554718.05</v>
+      <c r="E91" s="4"/>
+      <c r="F91" s="4"/>
+      <c r="G91" s="4"/>
+      <c r="H91" s="4"/>
+      <c r="I91" s="4"/>
+      <c r="J91" s="5">
+        <v>16554718.050000001</v>
       </c>
       <c r="K91" s="4" t="s">
         <v>23</v>
@@ -6950,9 +7560,11 @@
       <c r="U91" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="92" ht="11" customHeight="true">
-      <c r="A92" s="3" t="n">
+      <c r="V91" s="4"/>
+      <c r="W91" s="4"/>
+    </row>
+    <row r="92" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A92" s="3">
         <v>90</v>
       </c>
       <c r="B92" s="4" t="s">
@@ -6964,13 +7576,13 @@
       <c r="D92" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E92" s="4" t="e"/>
-      <c r="F92" s="4" t="e"/>
-      <c r="G92" s="4" t="e"/>
-      <c r="H92" s="4" t="e"/>
-      <c r="I92" s="4" t="e"/>
-      <c r="J92" s="5" t="n">
-        <v>20993524.62</v>
+      <c r="E92" s="4"/>
+      <c r="F92" s="4"/>
+      <c r="G92" s="4"/>
+      <c r="H92" s="4"/>
+      <c r="I92" s="4"/>
+      <c r="J92" s="5">
+        <v>20993524.620000001</v>
       </c>
       <c r="K92" s="4" t="s">
         <v>23</v>
@@ -7005,9 +7617,11 @@
       <c r="U92" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="93" ht="11" customHeight="true">
-      <c r="A93" s="3" t="n">
+      <c r="V92" s="4"/>
+      <c r="W92" s="4"/>
+    </row>
+    <row r="93" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A93" s="3">
         <v>91</v>
       </c>
       <c r="B93" s="4" t="s">
@@ -7019,13 +7633,13 @@
       <c r="D93" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E93" s="4" t="e"/>
-      <c r="F93" s="4" t="e"/>
-      <c r="G93" s="4" t="e"/>
-      <c r="H93" s="4" t="e"/>
-      <c r="I93" s="4" t="e"/>
-      <c r="J93" s="5" t="n">
-        <v>6362486.56</v>
+      <c r="E93" s="4"/>
+      <c r="F93" s="4"/>
+      <c r="G93" s="4"/>
+      <c r="H93" s="4"/>
+      <c r="I93" s="4"/>
+      <c r="J93" s="5">
+        <v>6362486.5599999996</v>
       </c>
       <c r="K93" s="4" t="s">
         <v>23</v>
@@ -7060,9 +7674,11 @@
       <c r="U93" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="94" ht="11" customHeight="true">
-      <c r="A94" s="3" t="n">
+      <c r="V93" s="4"/>
+      <c r="W93" s="4"/>
+    </row>
+    <row r="94" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A94" s="3">
         <v>92</v>
       </c>
       <c r="B94" s="4" t="s">
@@ -7074,13 +7690,13 @@
       <c r="D94" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E94" s="4" t="e"/>
-      <c r="F94" s="4" t="e"/>
-      <c r="G94" s="4" t="e"/>
-      <c r="H94" s="4" t="e"/>
-      <c r="I94" s="4" t="e"/>
-      <c r="J94" s="5" t="n">
-        <v>7037000.08</v>
+      <c r="E94" s="4"/>
+      <c r="F94" s="4"/>
+      <c r="G94" s="4"/>
+      <c r="H94" s="4"/>
+      <c r="I94" s="4"/>
+      <c r="J94" s="5">
+        <v>7037000.0800000001</v>
       </c>
       <c r="K94" s="4" t="s">
         <v>23</v>
@@ -7115,9 +7731,11 @@
       <c r="U94" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="95" ht="11" customHeight="true">
-      <c r="A95" s="3" t="n">
+      <c r="V94" s="4"/>
+      <c r="W94" s="4"/>
+    </row>
+    <row r="95" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A95" s="3">
         <v>93</v>
       </c>
       <c r="B95" s="4" t="s">
@@ -7129,12 +7747,12 @@
       <c r="D95" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E95" s="4" t="e"/>
-      <c r="F95" s="4" t="e"/>
-      <c r="G95" s="4" t="e"/>
-      <c r="H95" s="4" t="e"/>
-      <c r="I95" s="4" t="e"/>
-      <c r="J95" s="6" t="n">
+      <c r="E95" s="4"/>
+      <c r="F95" s="4"/>
+      <c r="G95" s="4"/>
+      <c r="H95" s="4"/>
+      <c r="I95" s="4"/>
+      <c r="J95" s="6">
         <v>6757132</v>
       </c>
       <c r="K95" s="4" t="s">
@@ -7170,9 +7788,11 @@
       <c r="U95" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="96" ht="11" customHeight="true">
-      <c r="A96" s="3" t="n">
+      <c r="V95" s="4"/>
+      <c r="W95" s="4"/>
+    </row>
+    <row r="96" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A96" s="3">
         <v>94</v>
       </c>
       <c r="B96" s="4" t="s">
@@ -7184,13 +7804,13 @@
       <c r="D96" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E96" s="4" t="e"/>
-      <c r="F96" s="4" t="e"/>
-      <c r="G96" s="4" t="e"/>
-      <c r="H96" s="4" t="e"/>
-      <c r="I96" s="4" t="e"/>
-      <c r="J96" s="5" t="n">
-        <v>7934101.94</v>
+      <c r="E96" s="4"/>
+      <c r="F96" s="4"/>
+      <c r="G96" s="4"/>
+      <c r="H96" s="4"/>
+      <c r="I96" s="4"/>
+      <c r="J96" s="5">
+        <v>7934101.9400000004</v>
       </c>
       <c r="K96" s="4" t="s">
         <v>23</v>
@@ -7225,9 +7845,11 @@
       <c r="U96" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="97" ht="11" customHeight="true">
-      <c r="A97" s="3" t="n">
+      <c r="V96" s="4"/>
+      <c r="W96" s="4"/>
+    </row>
+    <row r="97" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A97" s="3">
         <v>95</v>
       </c>
       <c r="B97" s="4" t="s">
@@ -7239,12 +7861,12 @@
       <c r="D97" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E97" s="4" t="e"/>
-      <c r="F97" s="4" t="e"/>
-      <c r="G97" s="4" t="e"/>
-      <c r="H97" s="4" t="e"/>
-      <c r="I97" s="4" t="e"/>
-      <c r="J97" s="5" t="n">
+      <c r="E97" s="4"/>
+      <c r="F97" s="4"/>
+      <c r="G97" s="4"/>
+      <c r="H97" s="4"/>
+      <c r="I97" s="4"/>
+      <c r="J97" s="5">
         <v>10193525.49</v>
       </c>
       <c r="K97" s="4" t="s">
@@ -7280,9 +7902,11 @@
       <c r="U97" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="98" ht="11" customHeight="true">
-      <c r="A98" s="3" t="n">
+      <c r="V97" s="4"/>
+      <c r="W97" s="4"/>
+    </row>
+    <row r="98" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A98" s="3">
         <v>96</v>
       </c>
       <c r="B98" s="4" t="s">
@@ -7294,12 +7918,12 @@
       <c r="D98" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E98" s="4" t="e"/>
-      <c r="F98" s="4" t="e"/>
-      <c r="G98" s="4" t="e"/>
-      <c r="H98" s="4" t="e"/>
-      <c r="I98" s="4" t="e"/>
-      <c r="J98" s="5" t="n">
+      <c r="E98" s="4"/>
+      <c r="F98" s="4"/>
+      <c r="G98" s="4"/>
+      <c r="H98" s="4"/>
+      <c r="I98" s="4"/>
+      <c r="J98" s="5">
         <v>12450598.27</v>
       </c>
       <c r="K98" s="4" t="s">
@@ -7335,9 +7959,11 @@
       <c r="U98" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="99" ht="11" customHeight="true">
-      <c r="A99" s="3" t="n">
+      <c r="V98" s="4"/>
+      <c r="W98" s="4"/>
+    </row>
+    <row r="99" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A99" s="3">
         <v>97</v>
       </c>
       <c r="B99" s="4" t="s">
@@ -7349,22 +7975,22 @@
       <c r="D99" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E99" s="5" t="n">
-        <v>39855636.14</v>
-      </c>
-      <c r="F99" s="5" t="n">
+      <c r="E99" s="5">
+        <v>39855636.140000001</v>
+      </c>
+      <c r="F99" s="5">
         <v>14733028.76</v>
       </c>
-      <c r="G99" s="5" t="n">
+      <c r="G99" s="5">
         <v>3308533.42</v>
       </c>
-      <c r="H99" s="5" t="n">
-        <v>29407074.31</v>
-      </c>
-      <c r="I99" s="5" t="n">
-        <v>39855636.14</v>
-      </c>
-      <c r="J99" s="5" t="n">
+      <c r="H99" s="5">
+        <v>29407074.309999999</v>
+      </c>
+      <c r="I99" s="5">
+        <v>39855636.140000001</v>
+      </c>
+      <c r="J99" s="5">
         <v>137020154.16</v>
       </c>
       <c r="K99" s="4" t="s">
@@ -7400,9 +8026,15 @@
       <c r="U99" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="100" ht="11" customHeight="true">
-      <c r="A100" s="3" t="n">
+      <c r="V99" s="5">
+        <v>39855636.140000001</v>
+      </c>
+      <c r="W99" s="5">
+        <v>39855636.140000001</v>
+      </c>
+    </row>
+    <row r="100" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A100" s="3">
         <v>98</v>
       </c>
       <c r="B100" s="4" t="s">
@@ -7414,22 +8046,22 @@
       <c r="D100" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E100" s="5" t="n">
-        <v>29407074.31</v>
-      </c>
-      <c r="F100" s="5" t="n">
+      <c r="E100" s="5">
+        <v>29407074.309999999</v>
+      </c>
+      <c r="F100" s="5">
         <v>14733028.76</v>
       </c>
-      <c r="G100" s="5" t="n">
+      <c r="G100" s="5">
         <v>3308533.42</v>
       </c>
-      <c r="H100" s="5" t="n">
-        <v>29407074.31</v>
-      </c>
-      <c r="I100" s="5" t="n">
-        <v>39855636.14</v>
-      </c>
-      <c r="J100" s="5" t="n">
+      <c r="H100" s="5">
+        <v>29407074.309999999</v>
+      </c>
+      <c r="I100" s="5">
+        <v>39855636.140000001</v>
+      </c>
+      <c r="J100" s="5">
         <v>137020154.16</v>
       </c>
       <c r="K100" s="4" t="s">
@@ -7465,9 +8097,15 @@
       <c r="U100" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="101" ht="11" customHeight="true">
-      <c r="A101" s="3" t="n">
+      <c r="V100" s="5">
+        <v>39855636.140000001</v>
+      </c>
+      <c r="W100" s="5">
+        <v>29407074.309999999</v>
+      </c>
+    </row>
+    <row r="101" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A101" s="3">
         <v>99</v>
       </c>
       <c r="B101" s="4" t="s">
@@ -7479,18 +8117,18 @@
       <c r="D101" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E101" s="5" t="n">
+      <c r="E101" s="5">
         <v>15910573.73</v>
       </c>
-      <c r="F101" s="4" t="e"/>
-      <c r="G101" s="5" t="n">
-        <v>10262675.71</v>
-      </c>
-      <c r="H101" s="4" t="e"/>
-      <c r="I101" s="5" t="n">
+      <c r="F101" s="4"/>
+      <c r="G101" s="5">
+        <v>10262675.710000001</v>
+      </c>
+      <c r="H101" s="4"/>
+      <c r="I101" s="5">
         <v>15910573.73</v>
       </c>
-      <c r="J101" s="5" t="n">
+      <c r="J101" s="5">
         <v>18116759.59</v>
       </c>
       <c r="K101" s="4" t="s">
@@ -7526,9 +8164,15 @@
       <c r="U101" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="102" ht="11" customHeight="true">
-      <c r="A102" s="3" t="n">
+      <c r="V101" s="5">
+        <v>15910573.73</v>
+      </c>
+      <c r="W101" s="5">
+        <v>15910573.73</v>
+      </c>
+    </row>
+    <row r="102" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A102" s="3">
         <v>100</v>
       </c>
       <c r="B102" s="4" t="s">
@@ -7540,12 +8184,12 @@
       <c r="D102" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E102" s="4" t="e"/>
-      <c r="F102" s="4" t="e"/>
-      <c r="G102" s="4" t="e"/>
-      <c r="H102" s="4" t="e"/>
-      <c r="I102" s="4" t="e"/>
-      <c r="J102" s="5" t="n">
+      <c r="E102" s="4"/>
+      <c r="F102" s="4"/>
+      <c r="G102" s="4"/>
+      <c r="H102" s="4"/>
+      <c r="I102" s="4"/>
+      <c r="J102" s="5">
         <v>15485829.08</v>
       </c>
       <c r="K102" s="4" t="s">
@@ -7581,9 +8225,11 @@
       <c r="U102" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="103" ht="11" customHeight="true">
-      <c r="A103" s="3" t="n">
+      <c r="V102" s="4"/>
+      <c r="W102" s="4"/>
+    </row>
+    <row r="103" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A103" s="3">
         <v>101</v>
       </c>
       <c r="B103" s="4" t="s">
@@ -7595,12 +8241,12 @@
       <c r="D103" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E103" s="4" t="e"/>
-      <c r="F103" s="4" t="e"/>
-      <c r="G103" s="4" t="e"/>
-      <c r="H103" s="4" t="e"/>
-      <c r="I103" s="4" t="e"/>
-      <c r="J103" s="5" t="n">
+      <c r="E103" s="4"/>
+      <c r="F103" s="4"/>
+      <c r="G103" s="4"/>
+      <c r="H103" s="4"/>
+      <c r="I103" s="4"/>
+      <c r="J103" s="5">
         <v>2669205.36</v>
       </c>
       <c r="K103" s="4" t="s">
@@ -7636,9 +8282,11 @@
       <c r="U103" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="104" ht="11" customHeight="true">
-      <c r="A104" s="3" t="n">
+      <c r="V103" s="4"/>
+      <c r="W103" s="4"/>
+    </row>
+    <row r="104" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A104" s="3">
         <v>102</v>
       </c>
       <c r="B104" s="4" t="s">
@@ -7650,12 +8298,12 @@
       <c r="D104" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E104" s="4" t="e"/>
-      <c r="F104" s="4" t="e"/>
-      <c r="G104" s="4" t="e"/>
-      <c r="H104" s="4" t="e"/>
-      <c r="I104" s="4" t="e"/>
-      <c r="J104" s="6" t="n">
+      <c r="E104" s="4"/>
+      <c r="F104" s="4"/>
+      <c r="G104" s="4"/>
+      <c r="H104" s="4"/>
+      <c r="I104" s="4"/>
+      <c r="J104" s="6">
         <v>957689</v>
       </c>
       <c r="K104" s="4" t="s">
@@ -7691,9 +8339,11 @@
       <c r="U104" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="105" ht="11" customHeight="true">
-      <c r="A105" s="3" t="n">
+      <c r="V104" s="4"/>
+      <c r="W104" s="4"/>
+    </row>
+    <row r="105" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A105" s="3">
         <v>103</v>
       </c>
       <c r="B105" s="4" t="s">
@@ -7705,13 +8355,13 @@
       <c r="D105" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E105" s="4" t="e"/>
-      <c r="F105" s="4" t="e"/>
-      <c r="G105" s="4" t="e"/>
-      <c r="H105" s="4" t="e"/>
-      <c r="I105" s="4" t="e"/>
-      <c r="J105" s="5" t="n">
-        <v>6473629.28</v>
+      <c r="E105" s="4"/>
+      <c r="F105" s="4"/>
+      <c r="G105" s="4"/>
+      <c r="H105" s="4"/>
+      <c r="I105" s="4"/>
+      <c r="J105" s="5">
+        <v>6473629.2800000003</v>
       </c>
       <c r="K105" s="4" t="s">
         <v>156</v>
@@ -7746,9 +8396,11 @@
       <c r="U105" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="106" ht="11" customHeight="true">
-      <c r="A106" s="3" t="n">
+      <c r="V105" s="4"/>
+      <c r="W105" s="4"/>
+    </row>
+    <row r="106" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A106" s="3">
         <v>104</v>
       </c>
       <c r="B106" s="4" t="s">
@@ -7760,13 +8412,13 @@
       <c r="D106" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E106" s="4" t="e"/>
-      <c r="F106" s="4" t="e"/>
-      <c r="G106" s="4" t="e"/>
-      <c r="H106" s="4" t="e"/>
-      <c r="I106" s="4" t="e"/>
-      <c r="J106" s="5" t="n">
-        <v>2327138.68</v>
+      <c r="E106" s="4"/>
+      <c r="F106" s="4"/>
+      <c r="G106" s="4"/>
+      <c r="H106" s="4"/>
+      <c r="I106" s="4"/>
+      <c r="J106" s="5">
+        <v>2327138.6800000002</v>
       </c>
       <c r="K106" s="4" t="s">
         <v>156</v>
@@ -7801,9 +8453,11 @@
       <c r="U106" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="107" ht="11" customHeight="true">
-      <c r="A107" s="3" t="n">
+      <c r="V106" s="4"/>
+      <c r="W106" s="4"/>
+    </row>
+    <row r="107" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A107" s="3">
         <v>105</v>
       </c>
       <c r="B107" s="4" t="s">
@@ -7815,12 +8469,12 @@
       <c r="D107" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E107" s="4" t="e"/>
-      <c r="F107" s="4" t="e"/>
-      <c r="G107" s="4" t="e"/>
-      <c r="H107" s="4" t="e"/>
-      <c r="I107" s="4" t="e"/>
-      <c r="J107" s="5" t="n">
+      <c r="E107" s="4"/>
+      <c r="F107" s="4"/>
+      <c r="G107" s="4"/>
+      <c r="H107" s="4"/>
+      <c r="I107" s="4"/>
+      <c r="J107" s="5">
         <v>1726180.28</v>
       </c>
       <c r="K107" s="4" t="s">
@@ -7856,9 +8510,11 @@
       <c r="U107" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="108" ht="11" customHeight="true">
-      <c r="A108" s="3" t="n">
+      <c r="V107" s="4"/>
+      <c r="W107" s="4"/>
+    </row>
+    <row r="108" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A108" s="3">
         <v>106</v>
       </c>
       <c r="B108" s="4" t="s">
@@ -7870,12 +8526,12 @@
       <c r="D108" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E108" s="4" t="e"/>
-      <c r="F108" s="4" t="e"/>
-      <c r="G108" s="4" t="e"/>
-      <c r="H108" s="4" t="e"/>
-      <c r="I108" s="4" t="e"/>
-      <c r="J108" s="5" t="n">
+      <c r="E108" s="4"/>
+      <c r="F108" s="4"/>
+      <c r="G108" s="4"/>
+      <c r="H108" s="4"/>
+      <c r="I108" s="4"/>
+      <c r="J108" s="5">
         <v>4171350.78</v>
       </c>
       <c r="K108" s="4" t="s">
@@ -7911,9 +8567,11 @@
       <c r="U108" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="109" ht="11" customHeight="true">
-      <c r="A109" s="3" t="n">
+      <c r="V108" s="4"/>
+      <c r="W108" s="4"/>
+    </row>
+    <row r="109" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A109" s="3">
         <v>107</v>
       </c>
       <c r="B109" s="4" t="s">
@@ -7925,12 +8583,12 @@
       <c r="D109" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E109" s="4" t="e"/>
-      <c r="F109" s="4" t="e"/>
-      <c r="G109" s="4" t="e"/>
-      <c r="H109" s="4" t="e"/>
-      <c r="I109" s="4" t="e"/>
-      <c r="J109" s="5" t="n">
+      <c r="E109" s="4"/>
+      <c r="F109" s="4"/>
+      <c r="G109" s="4"/>
+      <c r="H109" s="4"/>
+      <c r="I109" s="4"/>
+      <c r="J109" s="5">
         <v>1869652.77</v>
       </c>
       <c r="K109" s="4" t="s">
@@ -7966,9 +8624,11 @@
       <c r="U109" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="110" ht="11" customHeight="true">
-      <c r="A110" s="3" t="n">
+      <c r="V109" s="4"/>
+      <c r="W109" s="4"/>
+    </row>
+    <row r="110" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A110" s="3">
         <v>108</v>
       </c>
       <c r="B110" s="4" t="s">
@@ -7980,12 +8640,12 @@
       <c r="D110" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E110" s="4" t="e"/>
-      <c r="F110" s="4" t="e"/>
-      <c r="G110" s="4" t="e"/>
-      <c r="H110" s="4" t="e"/>
-      <c r="I110" s="4" t="e"/>
-      <c r="J110" s="5" t="n">
+      <c r="E110" s="4"/>
+      <c r="F110" s="4"/>
+      <c r="G110" s="4"/>
+      <c r="H110" s="4"/>
+      <c r="I110" s="4"/>
+      <c r="J110" s="5">
         <v>3832447.12</v>
       </c>
       <c r="K110" s="4" t="s">
@@ -8021,9 +8681,11 @@
       <c r="U110" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="111" ht="11" customHeight="true">
-      <c r="A111" s="3" t="n">
+      <c r="V110" s="4"/>
+      <c r="W110" s="4"/>
+    </row>
+    <row r="111" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A111" s="3">
         <v>109</v>
       </c>
       <c r="B111" s="4" t="s">
@@ -8035,12 +8697,12 @@
       <c r="D111" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E111" s="4" t="e"/>
-      <c r="F111" s="4" t="e"/>
-      <c r="G111" s="4" t="e"/>
-      <c r="H111" s="4" t="e"/>
-      <c r="I111" s="4" t="e"/>
-      <c r="J111" s="5" t="n">
+      <c r="E111" s="4"/>
+      <c r="F111" s="4"/>
+      <c r="G111" s="4"/>
+      <c r="H111" s="4"/>
+      <c r="I111" s="4"/>
+      <c r="J111" s="5">
         <v>1188286.17</v>
       </c>
       <c r="K111" s="4" t="s">
@@ -8076,9 +8738,11 @@
       <c r="U111" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="112" ht="11" customHeight="true">
-      <c r="A112" s="3" t="n">
+      <c r="V111" s="4"/>
+      <c r="W111" s="4"/>
+    </row>
+    <row r="112" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A112" s="3">
         <v>110</v>
       </c>
       <c r="B112" s="4" t="s">
@@ -8090,18 +8754,18 @@
       <c r="D112" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E112" s="7" t="n">
+      <c r="E112" s="7">
         <v>218195.3</v>
       </c>
-      <c r="F112" s="4" t="e"/>
-      <c r="G112" s="5" t="n">
+      <c r="F112" s="4"/>
+      <c r="G112" s="5">
         <v>196375.77</v>
       </c>
-      <c r="H112" s="4" t="e"/>
-      <c r="I112" s="7" t="n">
+      <c r="H112" s="4"/>
+      <c r="I112" s="7">
         <v>218195.3</v>
       </c>
-      <c r="J112" s="5" t="n">
+      <c r="J112" s="5">
         <v>432860.26</v>
       </c>
       <c r="K112" s="4" t="s">
@@ -8137,9 +8801,15 @@
       <c r="U112" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="113" ht="11" customHeight="true">
-      <c r="A113" s="3" t="n">
+      <c r="V112" s="7">
+        <v>218195.3</v>
+      </c>
+      <c r="W112" s="7">
+        <v>218195.3</v>
+      </c>
+    </row>
+    <row r="113" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A113" s="3">
         <v>111</v>
       </c>
       <c r="B113" s="4" t="s">
@@ -8151,12 +8821,12 @@
       <c r="D113" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E113" s="4" t="e"/>
-      <c r="F113" s="4" t="e"/>
-      <c r="G113" s="4" t="e"/>
-      <c r="H113" s="4" t="e"/>
-      <c r="I113" s="4" t="e"/>
-      <c r="J113" s="5" t="n">
+      <c r="E113" s="4"/>
+      <c r="F113" s="4"/>
+      <c r="G113" s="4"/>
+      <c r="H113" s="4"/>
+      <c r="I113" s="4"/>
+      <c r="J113" s="5">
         <v>4987864.79</v>
       </c>
       <c r="K113" s="4" t="s">
@@ -8192,9 +8862,11 @@
       <c r="U113" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="114" ht="11" customHeight="true">
-      <c r="A114" s="3" t="n">
+      <c r="V113" s="4"/>
+      <c r="W113" s="4"/>
+    </row>
+    <row r="114" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A114" s="3">
         <v>112</v>
       </c>
       <c r="B114" s="4" t="s">
@@ -8206,12 +8878,12 @@
       <c r="D114" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E114" s="4" t="e"/>
-      <c r="F114" s="4" t="e"/>
-      <c r="G114" s="4" t="e"/>
-      <c r="H114" s="4" t="e"/>
-      <c r="I114" s="4" t="e"/>
-      <c r="J114" s="5" t="n">
+      <c r="E114" s="4"/>
+      <c r="F114" s="4"/>
+      <c r="G114" s="4"/>
+      <c r="H114" s="4"/>
+      <c r="I114" s="4"/>
+      <c r="J114" s="5">
         <v>10516030.26</v>
       </c>
       <c r="K114" s="4" t="s">
@@ -8247,9 +8919,11 @@
       <c r="U114" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="115" ht="11" customHeight="true">
-      <c r="A115" s="3" t="n">
+      <c r="V114" s="4"/>
+      <c r="W114" s="4"/>
+    </row>
+    <row r="115" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A115" s="3">
         <v>113</v>
       </c>
       <c r="B115" s="4" t="s">
@@ -8261,12 +8935,12 @@
       <c r="D115" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E115" s="4" t="e"/>
-      <c r="F115" s="4" t="e"/>
-      <c r="G115" s="4" t="e"/>
-      <c r="H115" s="4" t="e"/>
-      <c r="I115" s="4" t="e"/>
-      <c r="J115" s="7" t="n">
+      <c r="E115" s="4"/>
+      <c r="F115" s="4"/>
+      <c r="G115" s="4"/>
+      <c r="H115" s="4"/>
+      <c r="I115" s="4"/>
+      <c r="J115" s="7">
         <v>3762369.8</v>
       </c>
       <c r="K115" s="4" t="s">
@@ -8302,9 +8976,11 @@
       <c r="U115" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="116" ht="11" customHeight="true">
-      <c r="A116" s="3" t="n">
+      <c r="V115" s="4"/>
+      <c r="W115" s="4"/>
+    </row>
+    <row r="116" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A116" s="3">
         <v>114</v>
       </c>
       <c r="B116" s="4" t="s">
@@ -8316,13 +8992,13 @@
       <c r="D116" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E116" s="4" t="e"/>
-      <c r="F116" s="4" t="e"/>
-      <c r="G116" s="4" t="e"/>
-      <c r="H116" s="4" t="e"/>
-      <c r="I116" s="4" t="e"/>
-      <c r="J116" s="5" t="n">
-        <v>8257174.68</v>
+      <c r="E116" s="4"/>
+      <c r="F116" s="4"/>
+      <c r="G116" s="4"/>
+      <c r="H116" s="4"/>
+      <c r="I116" s="4"/>
+      <c r="J116" s="5">
+        <v>8257174.6799999997</v>
       </c>
       <c r="K116" s="4" t="s">
         <v>23</v>
@@ -8357,9 +9033,11 @@
       <c r="U116" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="117" ht="11" customHeight="true">
-      <c r="A117" s="3" t="n">
+      <c r="V116" s="4"/>
+      <c r="W116" s="4"/>
+    </row>
+    <row r="117" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A117" s="3">
         <v>115</v>
       </c>
       <c r="B117" s="4" t="s">
@@ -8371,18 +9049,18 @@
       <c r="D117" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E117" s="5" t="n">
+      <c r="E117" s="5">
         <v>1695962.27</v>
       </c>
-      <c r="F117" s="4" t="e"/>
-      <c r="G117" s="5" t="n">
+      <c r="F117" s="4"/>
+      <c r="G117" s="5">
         <v>326484.61</v>
       </c>
-      <c r="H117" s="4" t="e"/>
-      <c r="I117" s="5" t="n">
+      <c r="H117" s="4"/>
+      <c r="I117" s="5">
         <v>1695962.27</v>
       </c>
-      <c r="J117" s="5" t="n">
+      <c r="J117" s="5">
         <v>1936892.53</v>
       </c>
       <c r="K117" s="4" t="s">
@@ -8418,9 +9096,15 @@
       <c r="U117" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="118" ht="11" customHeight="true">
-      <c r="A118" s="3" t="n">
+      <c r="V117" s="5">
+        <v>1695962.27</v>
+      </c>
+      <c r="W117" s="5">
+        <v>1695962.27</v>
+      </c>
+    </row>
+    <row r="118" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A118" s="3">
         <v>116</v>
       </c>
       <c r="B118" s="4" t="s">
@@ -8432,12 +9116,12 @@
       <c r="D118" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E118" s="4" t="e"/>
-      <c r="F118" s="4" t="e"/>
-      <c r="G118" s="4" t="e"/>
-      <c r="H118" s="4" t="e"/>
-      <c r="I118" s="4" t="e"/>
-      <c r="J118" s="5" t="n">
+      <c r="E118" s="4"/>
+      <c r="F118" s="4"/>
+      <c r="G118" s="4"/>
+      <c r="H118" s="4"/>
+      <c r="I118" s="4"/>
+      <c r="J118" s="5">
         <v>3454163.17</v>
       </c>
       <c r="K118" s="4" t="s">
@@ -8473,9 +9157,11 @@
       <c r="U118" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="119" ht="11" customHeight="true">
-      <c r="A119" s="3" t="n">
+      <c r="V118" s="4"/>
+      <c r="W118" s="4"/>
+    </row>
+    <row r="119" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A119" s="3">
         <v>117</v>
       </c>
       <c r="B119" s="4" t="s">
@@ -8487,19 +9173,19 @@
       <c r="D119" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E119" s="7" t="n">
-        <v>320590365.1</v>
-      </c>
-      <c r="F119" s="4" t="e"/>
-      <c r="G119" s="5" t="n">
+      <c r="E119" s="7">
+        <v>320590365.10000002</v>
+      </c>
+      <c r="F119" s="4"/>
+      <c r="G119" s="5">
         <v>262573700.34</v>
       </c>
-      <c r="H119" s="4" t="e"/>
-      <c r="I119" s="7" t="n">
-        <v>320590365.1</v>
-      </c>
-      <c r="J119" s="5" t="n">
-        <v>450652095.99</v>
+      <c r="H119" s="4"/>
+      <c r="I119" s="7">
+        <v>320590365.10000002</v>
+      </c>
+      <c r="J119" s="5">
+        <v>450652095.99000001</v>
       </c>
       <c r="K119" s="4" t="s">
         <v>23</v>
@@ -8534,9 +9220,15 @@
       <c r="U119" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="120" ht="11" customHeight="true">
-      <c r="A120" s="3" t="n">
+      <c r="V119" s="7">
+        <v>320590365.10000002</v>
+      </c>
+      <c r="W119" s="7">
+        <v>320590365.10000002</v>
+      </c>
+    </row>
+    <row r="120" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A120" s="3">
         <v>118</v>
       </c>
       <c r="B120" s="4" t="s">
@@ -8548,12 +9240,12 @@
       <c r="D120" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E120" s="4" t="e"/>
-      <c r="F120" s="4" t="e"/>
-      <c r="G120" s="4" t="e"/>
-      <c r="H120" s="4" t="e"/>
-      <c r="I120" s="4" t="e"/>
-      <c r="J120" s="5" t="n">
+      <c r="E120" s="4"/>
+      <c r="F120" s="4"/>
+      <c r="G120" s="4"/>
+      <c r="H120" s="4"/>
+      <c r="I120" s="4"/>
+      <c r="J120" s="5">
         <v>10599942.26</v>
       </c>
       <c r="K120" s="4" t="s">
@@ -8589,9 +9281,11 @@
       <c r="U120" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="121" ht="11" customHeight="true">
-      <c r="A121" s="3" t="n">
+      <c r="V120" s="4"/>
+      <c r="W120" s="4"/>
+    </row>
+    <row r="121" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A121" s="3">
         <v>119</v>
       </c>
       <c r="B121" s="4" t="s">
@@ -8603,16 +9297,16 @@
       <c r="D121" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E121" s="4" t="e"/>
-      <c r="F121" s="5" t="n">
+      <c r="E121" s="4"/>
+      <c r="F121" s="5">
         <v>52655.96</v>
       </c>
-      <c r="G121" s="5" t="n">
-        <v>30089.12</v>
-      </c>
-      <c r="H121" s="4" t="e"/>
-      <c r="I121" s="4" t="e"/>
-      <c r="J121" s="5" t="n">
+      <c r="G121" s="5">
+        <v>30089.119999999999</v>
+      </c>
+      <c r="H121" s="4"/>
+      <c r="I121" s="4"/>
+      <c r="J121" s="5">
         <v>23117833.98</v>
       </c>
       <c r="K121" s="4" t="s">
@@ -8648,9 +9342,11 @@
       <c r="U121" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="122" ht="11" customHeight="true">
-      <c r="A122" s="3" t="n">
+      <c r="V121" s="4"/>
+      <c r="W121" s="4"/>
+    </row>
+    <row r="122" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A122" s="3">
         <v>120</v>
       </c>
       <c r="B122" s="4" t="s">
@@ -8662,12 +9358,12 @@
       <c r="D122" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E122" s="4" t="e"/>
-      <c r="F122" s="4" t="e"/>
-      <c r="G122" s="4" t="e"/>
-      <c r="H122" s="4" t="e"/>
-      <c r="I122" s="4" t="e"/>
-      <c r="J122" s="5" t="n">
+      <c r="E122" s="4"/>
+      <c r="F122" s="4"/>
+      <c r="G122" s="4"/>
+      <c r="H122" s="4"/>
+      <c r="I122" s="4"/>
+      <c r="J122" s="5">
         <v>820496.87</v>
       </c>
       <c r="K122" s="4" t="s">
@@ -8703,9 +9399,11 @@
       <c r="U122" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="123" ht="11" customHeight="true">
-      <c r="A123" s="3" t="n">
+      <c r="V122" s="4"/>
+      <c r="W122" s="4"/>
+    </row>
+    <row r="123" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A123" s="3">
         <v>121</v>
       </c>
       <c r="B123" s="4" t="s">
@@ -8717,12 +9415,12 @@
       <c r="D123" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E123" s="4" t="e"/>
-      <c r="F123" s="4" t="e"/>
-      <c r="G123" s="4" t="e"/>
-      <c r="H123" s="4" t="e"/>
-      <c r="I123" s="4" t="e"/>
-      <c r="J123" s="5" t="n">
+      <c r="E123" s="4"/>
+      <c r="F123" s="4"/>
+      <c r="G123" s="4"/>
+      <c r="H123" s="4"/>
+      <c r="I123" s="4"/>
+      <c r="J123" s="5">
         <v>1662469.63</v>
       </c>
       <c r="K123" s="4" t="s">
@@ -8758,9 +9456,11 @@
       <c r="U123" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="124" ht="11" customHeight="true">
-      <c r="A124" s="3" t="n">
+      <c r="V123" s="4"/>
+      <c r="W123" s="4"/>
+    </row>
+    <row r="124" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A124" s="3">
         <v>122</v>
       </c>
       <c r="B124" s="4" t="s">
@@ -8772,12 +9472,12 @@
       <c r="D124" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E124" s="4" t="e"/>
-      <c r="F124" s="4" t="e"/>
-      <c r="G124" s="4" t="e"/>
-      <c r="H124" s="4" t="e"/>
-      <c r="I124" s="4" t="e"/>
-      <c r="J124" s="5" t="n">
+      <c r="E124" s="4"/>
+      <c r="F124" s="4"/>
+      <c r="G124" s="4"/>
+      <c r="H124" s="4"/>
+      <c r="I124" s="4"/>
+      <c r="J124" s="5">
         <v>949580.34</v>
       </c>
       <c r="K124" s="4" t="s">
@@ -8813,9 +9513,11 @@
       <c r="U124" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="125" ht="11" customHeight="true">
-      <c r="A125" s="3" t="n">
+      <c r="V124" s="4"/>
+      <c r="W124" s="4"/>
+    </row>
+    <row r="125" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A125" s="3">
         <v>123</v>
       </c>
       <c r="B125" s="4" t="s">
@@ -8827,12 +9529,12 @@
       <c r="D125" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E125" s="4" t="e"/>
-      <c r="F125" s="4" t="e"/>
-      <c r="G125" s="4" t="e"/>
-      <c r="H125" s="4" t="e"/>
-      <c r="I125" s="4" t="e"/>
-      <c r="J125" s="5" t="n">
+      <c r="E125" s="4"/>
+      <c r="F125" s="4"/>
+      <c r="G125" s="4"/>
+      <c r="H125" s="4"/>
+      <c r="I125" s="4"/>
+      <c r="J125" s="5">
         <v>1823546.02</v>
       </c>
       <c r="K125" s="4" t="s">
@@ -8868,9 +9570,11 @@
       <c r="U125" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="126" ht="11" customHeight="true">
-      <c r="A126" s="3" t="n">
+      <c r="V125" s="4"/>
+      <c r="W125" s="4"/>
+    </row>
+    <row r="126" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A126" s="3">
         <v>124</v>
       </c>
       <c r="B126" s="4" t="s">
@@ -8882,12 +9586,12 @@
       <c r="D126" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E126" s="4" t="e"/>
-      <c r="F126" s="4" t="e"/>
-      <c r="G126" s="4" t="e"/>
-      <c r="H126" s="4" t="e"/>
-      <c r="I126" s="4" t="e"/>
-      <c r="J126" s="5" t="n">
+      <c r="E126" s="4"/>
+      <c r="F126" s="4"/>
+      <c r="G126" s="4"/>
+      <c r="H126" s="4"/>
+      <c r="I126" s="4"/>
+      <c r="J126" s="5">
         <v>3306144.67</v>
       </c>
       <c r="K126" s="4" t="s">
@@ -8923,9 +9627,11 @@
       <c r="U126" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="127" ht="11" customHeight="true">
-      <c r="A127" s="3" t="n">
+      <c r="V126" s="4"/>
+      <c r="W126" s="4"/>
+    </row>
+    <row r="127" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A127" s="3">
         <v>125</v>
       </c>
       <c r="B127" s="4" t="s">
@@ -8937,12 +9643,12 @@
       <c r="D127" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E127" s="4" t="e"/>
-      <c r="F127" s="4" t="e"/>
-      <c r="G127" s="4" t="e"/>
-      <c r="H127" s="4" t="e"/>
-      <c r="I127" s="4" t="e"/>
-      <c r="J127" s="5" t="n">
+      <c r="E127" s="4"/>
+      <c r="F127" s="4"/>
+      <c r="G127" s="4"/>
+      <c r="H127" s="4"/>
+      <c r="I127" s="4"/>
+      <c r="J127" s="5">
         <v>1790972.21</v>
       </c>
       <c r="K127" s="4" t="s">
@@ -8978,9 +9684,11 @@
       <c r="U127" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="128" ht="11" customHeight="true">
-      <c r="A128" s="3" t="n">
+      <c r="V127" s="4"/>
+      <c r="W127" s="4"/>
+    </row>
+    <row r="128" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A128" s="3">
         <v>126</v>
       </c>
       <c r="B128" s="4" t="s">
@@ -8992,12 +9700,12 @@
       <c r="D128" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E128" s="4" t="e"/>
-      <c r="F128" s="4" t="e"/>
-      <c r="G128" s="4" t="e"/>
-      <c r="H128" s="4" t="e"/>
-      <c r="I128" s="4" t="e"/>
-      <c r="J128" s="5" t="n">
+      <c r="E128" s="4"/>
+      <c r="F128" s="4"/>
+      <c r="G128" s="4"/>
+      <c r="H128" s="4"/>
+      <c r="I128" s="4"/>
+      <c r="J128" s="5">
         <v>109768348.56</v>
       </c>
       <c r="K128" s="4" t="s">
@@ -9033,9 +9741,11 @@
       <c r="U128" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="129" ht="11" customHeight="true">
-      <c r="A129" s="3" t="n">
+      <c r="V128" s="4"/>
+      <c r="W128" s="4"/>
+    </row>
+    <row r="129" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A129" s="3">
         <v>127</v>
       </c>
       <c r="B129" s="4" t="s">
@@ -9047,12 +9757,12 @@
       <c r="D129" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E129" s="4" t="e"/>
-      <c r="F129" s="4" t="e"/>
-      <c r="G129" s="4" t="e"/>
-      <c r="H129" s="4" t="e"/>
-      <c r="I129" s="4" t="e"/>
-      <c r="J129" s="5" t="n">
+      <c r="E129" s="4"/>
+      <c r="F129" s="4"/>
+      <c r="G129" s="4"/>
+      <c r="H129" s="4"/>
+      <c r="I129" s="4"/>
+      <c r="J129" s="5">
         <v>164212.63</v>
       </c>
       <c r="K129" s="4" t="s">
@@ -9088,9 +9798,11 @@
       <c r="U129" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="130" ht="11" customHeight="true">
-      <c r="A130" s="3" t="n">
+      <c r="V129" s="4"/>
+      <c r="W129" s="4"/>
+    </row>
+    <row r="130" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A130" s="3">
         <v>128</v>
       </c>
       <c r="B130" s="4" t="s">
@@ -9102,18 +9814,18 @@
       <c r="D130" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E130" s="5" t="n">
+      <c r="E130" s="5">
         <v>124695.78</v>
       </c>
-      <c r="F130" s="4" t="e"/>
-      <c r="G130" s="5" t="n">
+      <c r="F130" s="4"/>
+      <c r="G130" s="5">
         <v>124695.78</v>
       </c>
-      <c r="H130" s="4" t="e"/>
-      <c r="I130" s="5" t="n">
+      <c r="H130" s="4"/>
+      <c r="I130" s="5">
         <v>124695.78</v>
       </c>
-      <c r="J130" s="5" t="n">
+      <c r="J130" s="5">
         <v>671479.53</v>
       </c>
       <c r="K130" s="4" t="s">
@@ -9149,9 +9861,15 @@
       <c r="U130" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="131" ht="11" customHeight="true">
-      <c r="A131" s="3" t="n">
+      <c r="V130" s="5">
+        <v>124695.78</v>
+      </c>
+      <c r="W130" s="5">
+        <v>124695.78</v>
+      </c>
+    </row>
+    <row r="131" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A131" s="3">
         <v>129</v>
       </c>
       <c r="B131" s="4" t="s">
@@ -9163,18 +9881,18 @@
       <c r="D131" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E131" s="5" t="n">
+      <c r="E131" s="5">
         <v>219989.77</v>
       </c>
-      <c r="F131" s="4" t="e"/>
-      <c r="G131" s="5" t="n">
+      <c r="F131" s="4"/>
+      <c r="G131" s="5">
         <v>219989.77</v>
       </c>
-      <c r="H131" s="4" t="e"/>
-      <c r="I131" s="5" t="n">
+      <c r="H131" s="4"/>
+      <c r="I131" s="5">
         <v>219989.77</v>
       </c>
-      <c r="J131" s="5" t="n">
+      <c r="J131" s="5">
         <v>482302.76</v>
       </c>
       <c r="K131" s="4" t="s">
@@ -9210,9 +9928,15 @@
       <c r="U131" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="132" ht="11" customHeight="true">
-      <c r="A132" s="3" t="n">
+      <c r="V131" s="5">
+        <v>219989.77</v>
+      </c>
+      <c r="W131" s="5">
+        <v>219989.77</v>
+      </c>
+    </row>
+    <row r="132" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A132" s="3">
         <v>130</v>
       </c>
       <c r="B132" s="4" t="s">
@@ -9224,12 +9948,12 @@
       <c r="D132" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E132" s="4" t="e"/>
-      <c r="F132" s="4" t="e"/>
-      <c r="G132" s="4" t="e"/>
-      <c r="H132" s="4" t="e"/>
-      <c r="I132" s="4" t="e"/>
-      <c r="J132" s="5" t="n">
+      <c r="E132" s="4"/>
+      <c r="F132" s="4"/>
+      <c r="G132" s="4"/>
+      <c r="H132" s="4"/>
+      <c r="I132" s="4"/>
+      <c r="J132" s="5">
         <v>472641.59</v>
       </c>
       <c r="K132" s="4" t="s">
@@ -9265,9 +9989,11 @@
       <c r="U132" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="133" ht="11" customHeight="true">
-      <c r="A133" s="3" t="n">
+      <c r="V132" s="4"/>
+      <c r="W132" s="4"/>
+    </row>
+    <row r="133" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A133" s="3">
         <v>131</v>
       </c>
       <c r="B133" s="4" t="s">
@@ -9279,14 +10005,14 @@
       <c r="D133" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E133" s="4" t="e"/>
-      <c r="F133" s="4" t="e"/>
-      <c r="G133" s="5" t="n">
-        <v>311145.22</v>
-      </c>
-      <c r="H133" s="4" t="e"/>
-      <c r="I133" s="4" t="e"/>
-      <c r="J133" s="5" t="n">
+      <c r="E133" s="4"/>
+      <c r="F133" s="4"/>
+      <c r="G133" s="5">
+        <v>311145.21999999997</v>
+      </c>
+      <c r="H133" s="4"/>
+      <c r="I133" s="4"/>
+      <c r="J133" s="5">
         <v>2074301.49</v>
       </c>
       <c r="K133" s="4" t="s">
@@ -9322,9 +10048,11 @@
       <c r="U133" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="134" ht="11" customHeight="true">
-      <c r="A134" s="3" t="n">
+      <c r="V133" s="4"/>
+      <c r="W133" s="4"/>
+    </row>
+    <row r="134" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A134" s="3">
         <v>132</v>
       </c>
       <c r="B134" s="4" t="s">
@@ -9336,12 +10064,12 @@
       <c r="D134" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E134" s="4" t="e"/>
-      <c r="F134" s="4" t="e"/>
-      <c r="G134" s="4" t="e"/>
-      <c r="H134" s="4" t="e"/>
-      <c r="I134" s="4" t="e"/>
-      <c r="J134" s="5" t="n">
+      <c r="E134" s="4"/>
+      <c r="F134" s="4"/>
+      <c r="G134" s="4"/>
+      <c r="H134" s="4"/>
+      <c r="I134" s="4"/>
+      <c r="J134" s="5">
         <v>919507.79</v>
       </c>
       <c r="K134" s="4" t="s">
@@ -9377,9 +10105,11 @@
       <c r="U134" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="135" ht="11" customHeight="true">
-      <c r="A135" s="3" t="n">
+      <c r="V134" s="4"/>
+      <c r="W134" s="4"/>
+    </row>
+    <row r="135" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A135" s="3">
         <v>133</v>
       </c>
       <c r="B135" s="4" t="s">
@@ -9391,14 +10121,14 @@
       <c r="D135" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E135" s="4" t="e"/>
-      <c r="F135" s="4" t="e"/>
-      <c r="G135" s="5" t="n">
+      <c r="E135" s="4"/>
+      <c r="F135" s="4"/>
+      <c r="G135" s="5">
         <v>219099.78</v>
       </c>
-      <c r="H135" s="4" t="e"/>
-      <c r="I135" s="4" t="e"/>
-      <c r="J135" s="5" t="n">
+      <c r="H135" s="4"/>
+      <c r="I135" s="4"/>
+      <c r="J135" s="5">
         <v>1460665.19</v>
       </c>
       <c r="K135" s="4" t="s">
@@ -9434,9 +10164,11 @@
       <c r="U135" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="136" ht="11" customHeight="true">
-      <c r="A136" s="3" t="n">
+      <c r="V135" s="4"/>
+      <c r="W135" s="4"/>
+    </row>
+    <row r="136" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A136" s="3">
         <v>134</v>
       </c>
       <c r="B136" s="4" t="s">
@@ -9448,12 +10180,12 @@
       <c r="D136" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E136" s="4" t="e"/>
-      <c r="F136" s="4" t="e"/>
-      <c r="G136" s="4" t="e"/>
-      <c r="H136" s="4" t="e"/>
-      <c r="I136" s="4" t="e"/>
-      <c r="J136" s="5" t="n">
+      <c r="E136" s="4"/>
+      <c r="F136" s="4"/>
+      <c r="G136" s="4"/>
+      <c r="H136" s="4"/>
+      <c r="I136" s="4"/>
+      <c r="J136" s="5">
         <v>97496.06</v>
       </c>
       <c r="K136" s="4" t="s">
@@ -9489,9 +10221,11 @@
       <c r="U136" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="137" ht="11" customHeight="true">
-      <c r="A137" s="3" t="n">
+      <c r="V136" s="4"/>
+      <c r="W136" s="4"/>
+    </row>
+    <row r="137" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A137" s="3">
         <v>135</v>
       </c>
       <c r="B137" s="4" t="s">
@@ -9503,12 +10237,12 @@
       <c r="D137" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E137" s="4" t="e"/>
-      <c r="F137" s="4" t="e"/>
-      <c r="G137" s="4" t="e"/>
-      <c r="H137" s="4" t="e"/>
-      <c r="I137" s="4" t="e"/>
-      <c r="J137" s="5" t="n">
+      <c r="E137" s="4"/>
+      <c r="F137" s="4"/>
+      <c r="G137" s="4"/>
+      <c r="H137" s="4"/>
+      <c r="I137" s="4"/>
+      <c r="J137" s="5">
         <v>1095062.95</v>
       </c>
       <c r="K137" s="4" t="s">
@@ -9544,9 +10278,11 @@
       <c r="U137" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="138" ht="11" customHeight="true">
-      <c r="A138" s="3" t="n">
+      <c r="V137" s="4"/>
+      <c r="W137" s="4"/>
+    </row>
+    <row r="138" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A138" s="3">
         <v>136</v>
       </c>
       <c r="B138" s="4" t="s">
@@ -9558,14 +10294,14 @@
       <c r="D138" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E138" s="4" t="e"/>
-      <c r="F138" s="4" t="e"/>
-      <c r="G138" s="5" t="n">
+      <c r="E138" s="4"/>
+      <c r="F138" s="4"/>
+      <c r="G138" s="5">
         <v>1027421.55</v>
       </c>
-      <c r="H138" s="4" t="e"/>
-      <c r="I138" s="4" t="e"/>
-      <c r="J138" s="5" t="n">
+      <c r="H138" s="4"/>
+      <c r="I138" s="4"/>
+      <c r="J138" s="5">
         <v>4109686.19</v>
       </c>
       <c r="K138" s="4" t="s">
@@ -9601,9 +10337,11 @@
       <c r="U138" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="139" ht="11" customHeight="true">
-      <c r="A139" s="3" t="n">
+      <c r="V138" s="4"/>
+      <c r="W138" s="4"/>
+    </row>
+    <row r="139" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A139" s="3">
         <v>137</v>
       </c>
       <c r="B139" s="4" t="s">
@@ -9615,12 +10353,12 @@
       <c r="D139" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E139" s="4" t="e"/>
-      <c r="F139" s="4" t="e"/>
-      <c r="G139" s="4" t="e"/>
-      <c r="H139" s="4" t="e"/>
-      <c r="I139" s="4" t="e"/>
-      <c r="J139" s="5" t="n">
+      <c r="E139" s="4"/>
+      <c r="F139" s="4"/>
+      <c r="G139" s="4"/>
+      <c r="H139" s="4"/>
+      <c r="I139" s="4"/>
+      <c r="J139" s="5">
         <v>1627262.89</v>
       </c>
       <c r="K139" s="4" t="s">
@@ -9656,9 +10394,11 @@
       <c r="U139" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="140" ht="11" customHeight="true">
-      <c r="A140" s="3" t="n">
+      <c r="V139" s="4"/>
+      <c r="W139" s="4"/>
+    </row>
+    <row r="140" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A140" s="3">
         <v>138</v>
       </c>
       <c r="B140" s="4" t="s">
@@ -9670,23 +10410,23 @@
       <c r="D140" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E140" s="5" t="n">
-        <v>143176972.76</v>
-      </c>
-      <c r="F140" s="5" t="n">
-        <v>11565270.94</v>
-      </c>
-      <c r="G140" s="5" t="n">
-        <v>125222006.51</v>
-      </c>
-      <c r="H140" s="5" t="n">
+      <c r="E140" s="5">
+        <v>143176972.75999999</v>
+      </c>
+      <c r="F140" s="5">
+        <v>11565270.939999999</v>
+      </c>
+      <c r="G140" s="5">
+        <v>125222006.51000001</v>
+      </c>
+      <c r="H140" s="5">
         <v>1989091.89</v>
       </c>
-      <c r="I140" s="5" t="n">
-        <v>143176972.76</v>
-      </c>
-      <c r="J140" s="5" t="n">
-        <v>171244658.68</v>
+      <c r="I140" s="5">
+        <v>143176972.75999999</v>
+      </c>
+      <c r="J140" s="5">
+        <v>171244658.68000001</v>
       </c>
       <c r="K140" s="4" t="s">
         <v>23</v>
@@ -9721,9 +10461,15 @@
       <c r="U140" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="141" ht="11" customHeight="true">
-      <c r="A141" s="3" t="n">
+      <c r="V140" s="5">
+        <v>143176972.75999999</v>
+      </c>
+      <c r="W140" s="5">
+        <v>143176972.75999999</v>
+      </c>
+    </row>
+    <row r="141" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A141" s="3">
         <v>139</v>
       </c>
       <c r="B141" s="4" t="s">
@@ -9735,23 +10481,23 @@
       <c r="D141" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E141" s="5" t="n">
+      <c r="E141" s="5">
         <v>1989091.89</v>
       </c>
-      <c r="F141" s="5" t="n">
-        <v>11565270.94</v>
-      </c>
-      <c r="G141" s="5" t="n">
-        <v>125222006.51</v>
-      </c>
-      <c r="H141" s="5" t="n">
+      <c r="F141" s="5">
+        <v>11565270.939999999</v>
+      </c>
+      <c r="G141" s="5">
+        <v>125222006.51000001</v>
+      </c>
+      <c r="H141" s="5">
         <v>1989091.89</v>
       </c>
-      <c r="I141" s="5" t="n">
-        <v>143176972.76</v>
-      </c>
-      <c r="J141" s="5" t="n">
-        <v>171244658.68</v>
+      <c r="I141" s="5">
+        <v>143176972.75999999</v>
+      </c>
+      <c r="J141" s="5">
+        <v>171244658.68000001</v>
       </c>
       <c r="K141" s="4" t="s">
         <v>23</v>
@@ -9786,9 +10532,15 @@
       <c r="U141" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="142" ht="11" customHeight="true">
-      <c r="A142" s="3" t="n">
+      <c r="V141" s="5">
+        <v>143176972.75999999</v>
+      </c>
+      <c r="W141" s="5">
+        <v>1989091.89</v>
+      </c>
+    </row>
+    <row r="142" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A142" s="3">
         <v>140</v>
       </c>
       <c r="B142" s="4" t="s">
@@ -9800,12 +10552,12 @@
       <c r="D142" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E142" s="4" t="e"/>
-      <c r="F142" s="4" t="e"/>
-      <c r="G142" s="4" t="e"/>
-      <c r="H142" s="4" t="e"/>
-      <c r="I142" s="4" t="e"/>
-      <c r="J142" s="3" t="n">
+      <c r="E142" s="4"/>
+      <c r="F142" s="4"/>
+      <c r="G142" s="4"/>
+      <c r="H142" s="4"/>
+      <c r="I142" s="4"/>
+      <c r="J142" s="3">
         <v>0</v>
       </c>
       <c r="K142" s="4" t="s">
@@ -9841,9 +10593,11 @@
       <c r="U142" s="4" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="143" ht="11" customHeight="true">
-      <c r="A143" s="3" t="n">
+      <c r="V142" s="4"/>
+      <c r="W142" s="4"/>
+    </row>
+    <row r="143" spans="1:23" ht="11.1" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A143" s="3">
         <v>141</v>
       </c>
       <c r="B143" s="4" t="s">
@@ -9855,13 +10609,13 @@
       <c r="D143" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="E143" s="4" t="e"/>
-      <c r="F143" s="4" t="e"/>
-      <c r="G143" s="4" t="e"/>
-      <c r="H143" s="4" t="e"/>
-      <c r="I143" s="4" t="e"/>
-      <c r="J143" s="5" t="n">
-        <v>2766548987.24</v>
+      <c r="E143" s="4"/>
+      <c r="F143" s="4"/>
+      <c r="G143" s="4"/>
+      <c r="H143" s="4"/>
+      <c r="I143" s="4"/>
+      <c r="J143" s="5">
+        <v>2766548987.2399998</v>
       </c>
       <c r="K143" s="4" t="s">
         <v>23</v>
@@ -9896,12 +10650,11 @@
       <c r="U143" s="4" t="s">
         <v>32</v>
       </c>
+      <c r="V143" s="4"/>
+      <c r="W143" s="4"/>
     </row>
   </sheetData>
-  <pageMargins left="0.393700787401574803149606299" top="0.393700787401574803149606299" right="0.393700787401574803149606299" bottom="0.393700787401574803149606299" header="0" footer="0"/>
-  <pageSetup blackAndWhite="false" scale="100" pageOrder="overThenDown" orientation="portrait"/>
-  <headerFooter alignWithMargins="true" scaleWithDoc="true"/>
-  <drawing r:id="rId1"/>
-  <legacyDrawing r:id="rId2"/>
+  <pageMargins left="0.39370078740157483" right="0.39370078740157483" top="0.39370078740157483" bottom="0.39370078740157483" header="0" footer="0"/>
+  <pageSetup pageOrder="overThenDown" orientation="portrait"/>
 </worksheet>
 </file>